--- a/CE04OSBP/Omaha_Cal_Info_CE04OSBP_00002.xlsx
+++ b/CE04OSBP/Omaha_Cal_Info_CE04OSBP_00002.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="75" yWindow="450" windowWidth="14070" windowHeight="11040" activeTab="1"/>
+    <workbookView xWindow="75" yWindow="450" windowWidth="14070" windowHeight="11040"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="2" r:id="rId1"/>
@@ -12,12 +12,12 @@
     <sheet name="ACS191_CC_tcarray" sheetId="3" r:id="rId3"/>
     <sheet name="ACS191_CC_taarray" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="89">
   <si>
     <t>Ref Des</t>
   </si>
@@ -282,13 +282,16 @@
     <t>SheetRef:ACS191_CC_taarray</t>
   </si>
   <si>
-    <t>This Node Did not Change Should it be Deployment 1 or 2? Same with the Cruise Number</t>
+    <t>TN313</t>
+  </si>
+  <si>
+    <t>This Node Did not Change</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -298,7 +301,7 @@
     <numFmt numFmtId="167" formatCode="0.0000"/>
     <numFmt numFmtId="168" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="40" x14ac:knownFonts="1">
+  <fonts count="40">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1407,7 +1410,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1442,7 +1444,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1618,14 +1619,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Z13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="19.7109375" customWidth="1"/>
     <col min="2" max="2" width="21.85546875" customWidth="1"/>
@@ -1633,7 +1634,7 @@
     <col min="4" max="4" width="22.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1683,7 +1684,7 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" ht="15.75" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
@@ -1737,7 +1738,7 @@
       <c r="Y2" s="10"/>
       <c r="Z2" s="10"/>
     </row>
-    <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" ht="15.75" customHeight="1">
       <c r="A3" s="11" t="s">
         <v>19</v>
       </c>
@@ -1766,7 +1767,7 @@
         <v>17</v>
       </c>
       <c r="J3" s="62" t="s">
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="L3" s="36">
         <f>((LEFT(G3,(FIND("°",G3,1)-1)))+(MID(G3,(FIND("°",G3,1)+1),(FIND("'",G3,1))-(FIND("°",G3,1)+1))/60))*(IF(RIGHT(G3,1)="N",1,-1))</f>
@@ -1777,10 +1778,10 @@
         <v>-124.95373333333333</v>
       </c>
       <c r="N3" s="66" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" ht="15.75" customHeight="1">
       <c r="A5" s="12"/>
       <c r="B5" s="12"/>
       <c r="C5" s="4"/>
@@ -1792,7 +1793,7 @@
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
     </row>
-    <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" ht="15.75" customHeight="1">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="4"/>
@@ -1804,7 +1805,7 @@
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
     </row>
-    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" ht="15.75" customHeight="1">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="4"/>
@@ -1816,7 +1817,7 @@
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
     </row>
-    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" ht="15.75" customHeight="1">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="4"/>
@@ -1828,7 +1829,7 @@
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
     </row>
-    <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" ht="15.75" customHeight="1">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="4"/>
@@ -1840,13 +1841,13 @@
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
     </row>
-    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" ht="15.75" customHeight="1">
       <c r="A11" s="15"/>
     </row>
-    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:26" ht="15.75" customHeight="1">
       <c r="A12" s="5"/>
     </row>
-    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" ht="15.75" customHeight="1">
       <c r="A13" s="12"/>
     </row>
   </sheetData>
@@ -1855,15 +1856,15 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Z306"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="33.7109375" style="20" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.140625" style="20" bestFit="1" customWidth="1"/>
@@ -1876,7 +1877,7 @@
     <col min="9" max="16384" width="14.42578125" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" ht="15.75" customHeight="1">
       <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
@@ -1896,7 +1897,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" ht="15.75" customHeight="1">
       <c r="A2" s="30"/>
       <c r="B2" s="30"/>
       <c r="C2" s="30"/>
@@ -1924,7 +1925,7 @@
       <c r="Y2" s="18"/>
       <c r="Z2" s="18"/>
     </row>
-    <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" ht="15.75" customHeight="1">
       <c r="A3" s="30" t="s">
         <v>18</v>
       </c>
@@ -1962,7 +1963,7 @@
       <c r="Y3" s="18"/>
       <c r="Z3" s="18"/>
     </row>
-    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" ht="15.75" customHeight="1">
       <c r="A4" s="33"/>
       <c r="B4" s="33"/>
       <c r="C4" s="40"/>
@@ -1990,7 +1991,7 @@
       <c r="Y4" s="18"/>
       <c r="Z4" s="18"/>
     </row>
-    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" ht="15.75" customHeight="1">
       <c r="A5" s="30" t="s">
         <v>21</v>
       </c>
@@ -2032,7 +2033,7 @@
       <c r="Y5" s="18"/>
       <c r="Z5" s="18"/>
     </row>
-    <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" ht="15.75" customHeight="1">
       <c r="A6" s="34"/>
       <c r="B6" s="42"/>
       <c r="C6" s="40"/>
@@ -2062,7 +2063,7 @@
       <c r="Y6" s="18"/>
       <c r="Z6" s="18"/>
     </row>
-    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" ht="15.75" customHeight="1">
       <c r="A7" s="41" t="s">
         <v>23</v>
       </c>
@@ -2102,7 +2103,7 @@
       <c r="Y7" s="18"/>
       <c r="Z7" s="18"/>
     </row>
-    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" ht="15.75" customHeight="1">
       <c r="A8" s="41" t="s">
         <v>23</v>
       </c>
@@ -2142,7 +2143,7 @@
       <c r="Y8" s="18"/>
       <c r="Z8" s="18"/>
     </row>
-    <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" ht="15.75" customHeight="1">
       <c r="A9" s="41" t="s">
         <v>23</v>
       </c>
@@ -2184,7 +2185,7 @@
       <c r="Y9" s="18"/>
       <c r="Z9" s="18"/>
     </row>
-    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" ht="15.75" customHeight="1">
       <c r="A10" s="41" t="s">
         <v>23</v>
       </c>
@@ -2224,7 +2225,7 @@
       <c r="Y10" s="18"/>
       <c r="Z10" s="18"/>
     </row>
-    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" ht="15.75" customHeight="1">
       <c r="A11" s="41" t="s">
         <v>23</v>
       </c>
@@ -2264,7 +2265,7 @@
       <c r="Y11" s="18"/>
       <c r="Z11" s="18"/>
     </row>
-    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:26" ht="15.75" customHeight="1">
       <c r="A12" s="41" t="s">
         <v>23</v>
       </c>
@@ -2304,7 +2305,7 @@
       <c r="Y12" s="18"/>
       <c r="Z12" s="18"/>
     </row>
-    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" ht="15.75" customHeight="1">
       <c r="A13" s="30"/>
       <c r="B13" s="43"/>
       <c r="C13" s="40"/>
@@ -2332,7 +2333,7 @@
       <c r="Y13" s="18"/>
       <c r="Z13" s="18"/>
     </row>
-    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:26" ht="15.75" customHeight="1">
       <c r="A14" s="35" t="s">
         <v>30</v>
       </c>
@@ -2372,7 +2373,7 @@
       <c r="Y14" s="24"/>
       <c r="Z14" s="24"/>
     </row>
-    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" ht="15.75" customHeight="1">
       <c r="A15" s="35" t="s">
         <v>30</v>
       </c>
@@ -2412,7 +2413,7 @@
       <c r="Y15" s="24"/>
       <c r="Z15" s="24"/>
     </row>
-    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" ht="15.75" customHeight="1">
       <c r="A16" s="30"/>
       <c r="B16" s="33"/>
       <c r="C16" s="40"/>
@@ -2440,7 +2441,7 @@
       <c r="Y16" s="18"/>
       <c r="Z16" s="18"/>
     </row>
-    <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:26" ht="15.75" customHeight="1">
       <c r="A17" s="30" t="s">
         <v>31</v>
       </c>
@@ -2480,7 +2481,7 @@
       <c r="Y17" s="18"/>
       <c r="Z17" s="18"/>
     </row>
-    <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:26" ht="15.75" customHeight="1">
       <c r="A18" s="30" t="s">
         <v>31</v>
       </c>
@@ -2520,7 +2521,7 @@
       <c r="Y18" s="18"/>
       <c r="Z18" s="18"/>
     </row>
-    <row r="19" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:26" ht="15.75" customHeight="1">
       <c r="A19" s="30" t="s">
         <v>31</v>
       </c>
@@ -2562,7 +2563,7 @@
       <c r="Y19" s="18"/>
       <c r="Z19" s="18"/>
     </row>
-    <row r="20" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:26" ht="15.75" customHeight="1">
       <c r="A20" s="30"/>
       <c r="B20" s="33"/>
       <c r="C20" s="40"/>
@@ -2590,7 +2591,7 @@
       <c r="Y20" s="18"/>
       <c r="Z20" s="18"/>
     </row>
-    <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:26" ht="15.75" customHeight="1">
       <c r="A21" s="35" t="s">
         <v>33</v>
       </c>
@@ -2630,7 +2631,7 @@
       <c r="Y21" s="24"/>
       <c r="Z21" s="24"/>
     </row>
-    <row r="22" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:26" ht="15.75" customHeight="1">
       <c r="A22" s="35" t="s">
         <v>33</v>
       </c>
@@ -2670,7 +2671,7 @@
       <c r="Y22" s="24"/>
       <c r="Z22" s="24"/>
     </row>
-    <row r="23" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:26" ht="15.75" customHeight="1">
       <c r="A23" s="30"/>
       <c r="B23" s="33"/>
       <c r="C23" s="40"/>
@@ -2698,7 +2699,7 @@
       <c r="Y23" s="18"/>
       <c r="Z23" s="18"/>
     </row>
-    <row r="24" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:26" ht="15.75" customHeight="1">
       <c r="A24" s="30" t="s">
         <v>34</v>
       </c>
@@ -2740,7 +2741,7 @@
       <c r="Y24" s="18"/>
       <c r="Z24" s="18"/>
     </row>
-    <row r="25" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:26" ht="15.75" customHeight="1">
       <c r="A25" s="30" t="s">
         <v>34</v>
       </c>
@@ -2782,7 +2783,7 @@
       <c r="Y25" s="18"/>
       <c r="Z25" s="18"/>
     </row>
-    <row r="26" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:26" ht="15.75" customHeight="1">
       <c r="A26" s="30" t="s">
         <v>34</v>
       </c>
@@ -2824,7 +2825,7 @@
       <c r="Y26" s="18"/>
       <c r="Z26" s="18"/>
     </row>
-    <row r="27" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:26" ht="15.75" customHeight="1">
       <c r="A27" s="30" t="s">
         <v>34</v>
       </c>
@@ -2866,7 +2867,7 @@
       <c r="Y27" s="18"/>
       <c r="Z27" s="18"/>
     </row>
-    <row r="28" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:26" ht="15.75" customHeight="1">
       <c r="A28" s="30" t="s">
         <v>34</v>
       </c>
@@ -2908,7 +2909,7 @@
       <c r="Y28" s="18"/>
       <c r="Z28" s="18"/>
     </row>
-    <row r="29" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:26" ht="15.75" customHeight="1">
       <c r="A29" s="30" t="s">
         <v>34</v>
       </c>
@@ -2950,7 +2951,7 @@
       <c r="Y29" s="18"/>
       <c r="Z29" s="18"/>
     </row>
-    <row r="30" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:26" ht="15.75" customHeight="1">
       <c r="A30" s="30" t="s">
         <v>34</v>
       </c>
@@ -2992,7 +2993,7 @@
       <c r="Y30" s="18"/>
       <c r="Z30" s="18"/>
     </row>
-    <row r="31" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:26" ht="15.75" customHeight="1">
       <c r="A31" s="30" t="s">
         <v>34</v>
       </c>
@@ -3034,7 +3035,7 @@
       <c r="Y31" s="18"/>
       <c r="Z31" s="18"/>
     </row>
-    <row r="32" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:26" ht="15.75" customHeight="1">
       <c r="A32" s="30"/>
       <c r="B32" s="33"/>
       <c r="C32" s="40"/>
@@ -3062,7 +3063,7 @@
       <c r="Y32" s="18"/>
       <c r="Z32" s="18"/>
     </row>
-    <row r="33" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:26" ht="12.75">
       <c r="A33" s="30" t="s">
         <v>41</v>
       </c>
@@ -3106,7 +3107,7 @@
       <c r="Y33" s="18"/>
       <c r="Z33" s="18"/>
     </row>
-    <row r="34" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:26" ht="12.75">
       <c r="A34" s="30" t="s">
         <v>41</v>
       </c>
@@ -3150,7 +3151,7 @@
       <c r="Y34" s="18"/>
       <c r="Z34" s="18"/>
     </row>
-    <row r="35" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:26" ht="12.75">
       <c r="A35" s="30" t="s">
         <v>41</v>
       </c>
@@ -3194,7 +3195,7 @@
       <c r="Y35" s="18"/>
       <c r="Z35" s="18"/>
     </row>
-    <row r="36" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:26" ht="12.75">
       <c r="A36" s="30" t="s">
         <v>41</v>
       </c>
@@ -3238,7 +3239,7 @@
       <c r="Y36" s="18"/>
       <c r="Z36" s="18"/>
     </row>
-    <row r="37" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:26" ht="12.75">
       <c r="A37" s="30" t="s">
         <v>41</v>
       </c>
@@ -3280,7 +3281,7 @@
       <c r="Y37" s="18"/>
       <c r="Z37" s="18"/>
     </row>
-    <row r="38" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:26" ht="12.75">
       <c r="A38" s="30" t="s">
         <v>41</v>
       </c>
@@ -3322,7 +3323,7 @@
       <c r="Y38" s="18"/>
       <c r="Z38" s="18"/>
     </row>
-    <row r="39" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:26" ht="12.75">
       <c r="A39" s="30" t="s">
         <v>41</v>
       </c>
@@ -3364,7 +3365,7 @@
       <c r="Y39" s="18"/>
       <c r="Z39" s="18"/>
     </row>
-    <row r="40" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:26" ht="12.75">
       <c r="A40" s="30"/>
       <c r="B40" s="33"/>
       <c r="C40" s="40"/>
@@ -3392,7 +3393,7 @@
       <c r="Y40" s="18"/>
       <c r="Z40" s="18"/>
     </row>
-    <row r="41" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:26" ht="12.75">
       <c r="A41" s="30" t="s">
         <v>48</v>
       </c>
@@ -3432,7 +3433,7 @@
       <c r="Y41" s="18"/>
       <c r="Z41" s="18"/>
     </row>
-    <row r="42" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:26" ht="12.75">
       <c r="A42" s="30" t="s">
         <v>48</v>
       </c>
@@ -3472,7 +3473,7 @@
       <c r="Y42" s="18"/>
       <c r="Z42" s="18"/>
     </row>
-    <row r="43" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:26" ht="12.75">
       <c r="A43" s="30" t="s">
         <v>48</v>
       </c>
@@ -3512,7 +3513,7 @@
       <c r="Y43" s="18"/>
       <c r="Z43" s="18"/>
     </row>
-    <row r="44" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:26" ht="12.75" customHeight="1">
       <c r="A44" s="30" t="s">
         <v>48</v>
       </c>
@@ -3552,7 +3553,7 @@
       <c r="Y44" s="18"/>
       <c r="Z44" s="18"/>
     </row>
-    <row r="45" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:26" ht="12.75">
       <c r="A45" s="30" t="s">
         <v>48</v>
       </c>
@@ -3592,7 +3593,7 @@
       <c r="Y45" s="18"/>
       <c r="Z45" s="18"/>
     </row>
-    <row r="46" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:26" ht="12.75">
       <c r="A46" s="30" t="s">
         <v>48</v>
       </c>
@@ -3632,7 +3633,7 @@
       <c r="Y46" s="18"/>
       <c r="Z46" s="18"/>
     </row>
-    <row r="47" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:26" ht="12.75">
       <c r="A47" s="30" t="s">
         <v>48</v>
       </c>
@@ -3672,7 +3673,7 @@
       <c r="Y47" s="18"/>
       <c r="Z47" s="18"/>
     </row>
-    <row r="48" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:26" ht="12.75">
       <c r="A48" s="30" t="s">
         <v>48</v>
       </c>
@@ -3712,7 +3713,7 @@
       <c r="Y48" s="18"/>
       <c r="Z48" s="18"/>
     </row>
-    <row r="49" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:26" ht="12.75">
       <c r="A49" s="18"/>
       <c r="B49" s="18"/>
       <c r="C49" s="16"/>
@@ -3740,7 +3741,7 @@
       <c r="Y49" s="18"/>
       <c r="Z49" s="18"/>
     </row>
-    <row r="50" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:26" ht="12.75">
       <c r="A50" s="17"/>
       <c r="B50" s="18"/>
       <c r="C50" s="16"/>
@@ -3768,7 +3769,7 @@
       <c r="Y50" s="18"/>
       <c r="Z50" s="18"/>
     </row>
-    <row r="51" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:26" ht="12.75">
       <c r="A51" s="17"/>
       <c r="B51" s="18"/>
       <c r="C51" s="16"/>
@@ -3796,7 +3797,7 @@
       <c r="Y51" s="18"/>
       <c r="Z51" s="18"/>
     </row>
-    <row r="52" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:26" ht="12.75">
       <c r="A52" s="22"/>
       <c r="B52" s="23"/>
       <c r="C52" s="16"/>
@@ -3823,7 +3824,7 @@
       <c r="Y52" s="18"/>
       <c r="Z52" s="18"/>
     </row>
-    <row r="53" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:26" ht="12.75">
       <c r="A53" s="17"/>
       <c r="B53" s="17"/>
       <c r="C53" s="16"/>
@@ -3850,7 +3851,7 @@
       <c r="Y53" s="18"/>
       <c r="Z53" s="18"/>
     </row>
-    <row r="54" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:26" ht="12.75">
       <c r="A54" s="17"/>
       <c r="B54" s="17"/>
       <c r="C54" s="16"/>
@@ -3878,7 +3879,7 @@
       <c r="Y54" s="18"/>
       <c r="Z54" s="18"/>
     </row>
-    <row r="55" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:26" ht="12.75">
       <c r="A55" s="18"/>
       <c r="B55" s="18"/>
       <c r="C55" s="16"/>
@@ -3906,7 +3907,7 @@
       <c r="Y55" s="18"/>
       <c r="Z55" s="18"/>
     </row>
-    <row r="56" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:26" ht="12.75">
       <c r="A56" s="17"/>
       <c r="B56" s="17"/>
       <c r="C56" s="16"/>
@@ -3934,7 +3935,7 @@
       <c r="Y56" s="18"/>
       <c r="Z56" s="18"/>
     </row>
-    <row r="57" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:26" ht="12.75">
       <c r="A57" s="17"/>
       <c r="B57" s="17"/>
       <c r="C57" s="16"/>
@@ -3962,7 +3963,7 @@
       <c r="Y57" s="18"/>
       <c r="Z57" s="18"/>
     </row>
-    <row r="58" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:26" ht="12.75">
       <c r="A58" s="17"/>
       <c r="B58" s="18"/>
       <c r="C58" s="16"/>
@@ -3990,7 +3991,7 @@
       <c r="Y58" s="18"/>
       <c r="Z58" s="18"/>
     </row>
-    <row r="59" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:26" ht="12.75">
       <c r="A59" s="17"/>
       <c r="B59" s="17"/>
       <c r="C59" s="16"/>
@@ -4018,7 +4019,7 @@
       <c r="Y59" s="18"/>
       <c r="Z59" s="18"/>
     </row>
-    <row r="60" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:26" ht="12.75">
       <c r="A60" s="17"/>
       <c r="B60" s="17"/>
       <c r="C60" s="16"/>
@@ -4046,7 +4047,7 @@
       <c r="Y60" s="18"/>
       <c r="Z60" s="18"/>
     </row>
-    <row r="61" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:26" ht="12.75">
       <c r="A61" s="17"/>
       <c r="B61" s="18"/>
       <c r="C61" s="16"/>
@@ -4074,7 +4075,7 @@
       <c r="Y61" s="18"/>
       <c r="Z61" s="18"/>
     </row>
-    <row r="62" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:26" ht="12.75">
       <c r="A62" s="17"/>
       <c r="B62" s="17"/>
       <c r="C62" s="16"/>
@@ -4102,7 +4103,7 @@
       <c r="Y62" s="18"/>
       <c r="Z62" s="18"/>
     </row>
-    <row r="63" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:26" ht="12.75">
       <c r="A63" s="17"/>
       <c r="B63" s="17"/>
       <c r="C63" s="16"/>
@@ -4130,7 +4131,7 @@
       <c r="Y63" s="18"/>
       <c r="Z63" s="18"/>
     </row>
-    <row r="64" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:26" ht="12.75">
       <c r="A64" s="17"/>
       <c r="B64" s="18"/>
       <c r="C64" s="16"/>
@@ -4158,7 +4159,7 @@
       <c r="Y64" s="18"/>
       <c r="Z64" s="18"/>
     </row>
-    <row r="65" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:26" ht="12.75">
       <c r="A65" s="17"/>
       <c r="B65" s="17"/>
       <c r="C65" s="16"/>
@@ -4186,7 +4187,7 @@
       <c r="Y65" s="18"/>
       <c r="Z65" s="18"/>
     </row>
-    <row r="66" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:26" ht="12.75">
       <c r="A66" s="17"/>
       <c r="B66" s="17"/>
       <c r="C66" s="16"/>
@@ -4214,7 +4215,7 @@
       <c r="Y66" s="18"/>
       <c r="Z66" s="18"/>
     </row>
-    <row r="67" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:26" ht="12.75">
       <c r="A67" s="17"/>
       <c r="B67" s="18"/>
       <c r="C67" s="16"/>
@@ -4242,7 +4243,7 @@
       <c r="Y67" s="18"/>
       <c r="Z67" s="18"/>
     </row>
-    <row r="68" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:26" ht="12.75">
       <c r="A68" s="17"/>
       <c r="B68" s="17"/>
       <c r="C68" s="16"/>
@@ -4270,7 +4271,7 @@
       <c r="Y68" s="18"/>
       <c r="Z68" s="18"/>
     </row>
-    <row r="69" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:26" ht="12.75">
       <c r="A69" s="17"/>
       <c r="B69" s="17"/>
       <c r="C69" s="16"/>
@@ -4298,7 +4299,7 @@
       <c r="Y69" s="18"/>
       <c r="Z69" s="18"/>
     </row>
-    <row r="70" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:26" ht="12.75">
       <c r="A70" s="22"/>
       <c r="B70" s="23"/>
       <c r="C70" s="16"/>
@@ -4326,7 +4327,7 @@
       <c r="Y70" s="18"/>
       <c r="Z70" s="18"/>
     </row>
-    <row r="71" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:26" ht="12.75">
       <c r="A71" s="17"/>
       <c r="B71" s="17"/>
       <c r="C71" s="16"/>
@@ -4354,7 +4355,7 @@
       <c r="Y71" s="18"/>
       <c r="Z71" s="18"/>
     </row>
-    <row r="72" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:26" ht="12.75">
       <c r="A72" s="17"/>
       <c r="B72" s="17"/>
       <c r="C72" s="16"/>
@@ -4382,7 +4383,7 @@
       <c r="Y72" s="18"/>
       <c r="Z72" s="18"/>
     </row>
-    <row r="73" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:26" ht="12.75">
       <c r="A73" s="22"/>
       <c r="B73" s="23"/>
       <c r="C73" s="16"/>
@@ -4410,7 +4411,7 @@
       <c r="Y73" s="18"/>
       <c r="Z73" s="18"/>
     </row>
-    <row r="74" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:26" ht="12.75">
       <c r="A74" s="17"/>
       <c r="B74" s="23"/>
       <c r="C74" s="16"/>
@@ -4438,7 +4439,7 @@
       <c r="Y74" s="18"/>
       <c r="Z74" s="18"/>
     </row>
-    <row r="75" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:26" ht="12.75">
       <c r="A75" s="17"/>
       <c r="B75" s="23"/>
       <c r="C75" s="16"/>
@@ -4466,7 +4467,7 @@
       <c r="Y75" s="18"/>
       <c r="Z75" s="18"/>
     </row>
-    <row r="76" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:26" ht="12.75">
       <c r="A76" s="22"/>
       <c r="B76" s="23"/>
       <c r="C76" s="16"/>
@@ -4494,7 +4495,7 @@
       <c r="Y76" s="18"/>
       <c r="Z76" s="18"/>
     </row>
-    <row r="77" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:26" ht="12.75">
       <c r="A77" s="17"/>
       <c r="B77" s="23"/>
       <c r="C77" s="16"/>
@@ -4522,7 +4523,7 @@
       <c r="Y77" s="18"/>
       <c r="Z77" s="18"/>
     </row>
-    <row r="78" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:26" ht="12.75">
       <c r="A78" s="17"/>
       <c r="B78" s="23"/>
       <c r="C78" s="16"/>
@@ -4550,7 +4551,7 @@
       <c r="Y78" s="18"/>
       <c r="Z78" s="18"/>
     </row>
-    <row r="79" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:26" ht="12.75">
       <c r="A79" s="22"/>
       <c r="B79" s="23"/>
       <c r="C79" s="16"/>
@@ -4578,7 +4579,7 @@
       <c r="Y79" s="18"/>
       <c r="Z79" s="18"/>
     </row>
-    <row r="80" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:26" ht="12.75">
       <c r="A80" s="22"/>
       <c r="B80" s="23"/>
       <c r="C80" s="16"/>
@@ -4606,7 +4607,7 @@
       <c r="Y80" s="18"/>
       <c r="Z80" s="18"/>
     </row>
-    <row r="81" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:26" ht="12.75">
       <c r="A81" s="22"/>
       <c r="B81" s="23"/>
       <c r="C81" s="16"/>
@@ -4634,7 +4635,7 @@
       <c r="Y81" s="18"/>
       <c r="Z81" s="18"/>
     </row>
-    <row r="82" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:26" ht="12.75">
       <c r="A82" s="22"/>
       <c r="B82" s="23"/>
       <c r="C82" s="16"/>
@@ -4662,7 +4663,7 @@
       <c r="Y82" s="18"/>
       <c r="Z82" s="18"/>
     </row>
-    <row r="83" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:26" ht="12.75">
       <c r="A83" s="22"/>
       <c r="B83" s="23"/>
       <c r="C83" s="16"/>
@@ -4690,7 +4691,7 @@
       <c r="Y83" s="18"/>
       <c r="Z83" s="18"/>
     </row>
-    <row r="84" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:26" ht="12.75">
       <c r="A84" s="22"/>
       <c r="B84" s="23"/>
       <c r="C84" s="16"/>
@@ -4718,7 +4719,7 @@
       <c r="Y84" s="18"/>
       <c r="Z84" s="18"/>
     </row>
-    <row r="85" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:26" ht="12.75">
       <c r="A85" s="22"/>
       <c r="B85" s="23"/>
       <c r="C85" s="16"/>
@@ -4746,7 +4747,7 @@
       <c r="Y85" s="18"/>
       <c r="Z85" s="18"/>
     </row>
-    <row r="86" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:26" ht="12.75">
       <c r="A86" s="17"/>
       <c r="B86" s="17"/>
       <c r="C86" s="16"/>
@@ -4774,7 +4775,7 @@
       <c r="Y86" s="18"/>
       <c r="Z86" s="18"/>
     </row>
-    <row r="87" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:26" ht="12.75">
       <c r="A87" s="17"/>
       <c r="B87" s="17"/>
       <c r="C87" s="16"/>
@@ -4802,7 +4803,7 @@
       <c r="Y87" s="18"/>
       <c r="Z87" s="18"/>
     </row>
-    <row r="88" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:26" ht="12.75">
       <c r="A88" s="17"/>
       <c r="B88" s="17"/>
       <c r="C88" s="16"/>
@@ -4830,7 +4831,7 @@
       <c r="Y88" s="18"/>
       <c r="Z88" s="18"/>
     </row>
-    <row r="89" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:26" ht="12.75">
       <c r="A89" s="17"/>
       <c r="B89" s="17"/>
       <c r="C89" s="16"/>
@@ -4858,7 +4859,7 @@
       <c r="Y89" s="18"/>
       <c r="Z89" s="18"/>
     </row>
-    <row r="90" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:26" ht="12.75">
       <c r="A90" s="17"/>
       <c r="B90" s="17"/>
       <c r="C90" s="16"/>
@@ -4886,7 +4887,7 @@
       <c r="Y90" s="18"/>
       <c r="Z90" s="18"/>
     </row>
-    <row r="91" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:26" ht="12.75">
       <c r="A91" s="22"/>
       <c r="B91" s="23"/>
       <c r="C91" s="16"/>
@@ -4914,7 +4915,7 @@
       <c r="Y91" s="18"/>
       <c r="Z91" s="18"/>
     </row>
-    <row r="92" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:26" ht="12.75">
       <c r="A92" s="22"/>
       <c r="B92" s="23"/>
       <c r="C92" s="16"/>
@@ -4942,7 +4943,7 @@
       <c r="Y92" s="18"/>
       <c r="Z92" s="18"/>
     </row>
-    <row r="93" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:26" ht="12.75">
       <c r="A93" s="22"/>
       <c r="B93" s="23"/>
       <c r="C93" s="16"/>
@@ -4970,7 +4971,7 @@
       <c r="Y93" s="18"/>
       <c r="Z93" s="18"/>
     </row>
-    <row r="94" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:26" ht="12.75">
       <c r="A94" s="22"/>
       <c r="B94" s="23"/>
       <c r="C94" s="16"/>
@@ -4998,7 +4999,7 @@
       <c r="Y94" s="18"/>
       <c r="Z94" s="18"/>
     </row>
-    <row r="95" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:26" ht="12.75">
       <c r="A95" s="22"/>
       <c r="B95" s="23"/>
       <c r="C95" s="16"/>
@@ -5026,7 +5027,7 @@
       <c r="Y95" s="18"/>
       <c r="Z95" s="18"/>
     </row>
-    <row r="96" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:26" ht="12.75">
       <c r="A96" s="17"/>
       <c r="B96" s="23"/>
       <c r="C96" s="16"/>
@@ -5054,7 +5055,7 @@
       <c r="Y96" s="18"/>
       <c r="Z96" s="18"/>
     </row>
-    <row r="97" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:26" ht="12.75">
       <c r="A97" s="17"/>
       <c r="B97" s="23"/>
       <c r="C97" s="16"/>
@@ -5082,7 +5083,7 @@
       <c r="Y97" s="18"/>
       <c r="Z97" s="18"/>
     </row>
-    <row r="98" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:26" ht="12.75">
       <c r="A98" s="17"/>
       <c r="B98" s="23"/>
       <c r="C98" s="16"/>
@@ -5110,7 +5111,7 @@
       <c r="Y98" s="18"/>
       <c r="Z98" s="18"/>
     </row>
-    <row r="99" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:26" ht="12.75">
       <c r="A99" s="22"/>
       <c r="B99" s="23"/>
       <c r="C99" s="16"/>
@@ -5138,7 +5139,7 @@
       <c r="Y99" s="18"/>
       <c r="Z99" s="18"/>
     </row>
-    <row r="100" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:26" ht="12.75">
       <c r="A100" s="18"/>
       <c r="B100" s="17"/>
       <c r="C100" s="16"/>
@@ -5166,7 +5167,7 @@
       <c r="Y100" s="18"/>
       <c r="Z100" s="18"/>
     </row>
-    <row r="101" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:26" ht="12.75">
       <c r="A101" s="17"/>
       <c r="B101" s="17"/>
       <c r="C101" s="16"/>
@@ -5194,7 +5195,7 @@
       <c r="Y101" s="18"/>
       <c r="Z101" s="18"/>
     </row>
-    <row r="102" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:26" ht="12.75">
       <c r="A102" s="17"/>
       <c r="B102" s="17"/>
       <c r="C102" s="16"/>
@@ -5222,7 +5223,7 @@
       <c r="Y102" s="18"/>
       <c r="Z102" s="18"/>
     </row>
-    <row r="103" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:26" ht="12.75">
       <c r="A103" s="17"/>
       <c r="B103" s="17"/>
       <c r="C103" s="16"/>
@@ -5250,7 +5251,7 @@
       <c r="Y103" s="18"/>
       <c r="Z103" s="18"/>
     </row>
-    <row r="104" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:26" ht="12.75">
       <c r="A104" s="17"/>
       <c r="B104" s="17"/>
       <c r="C104" s="16"/>
@@ -5278,7 +5279,7 @@
       <c r="Y104" s="18"/>
       <c r="Z104" s="18"/>
     </row>
-    <row r="105" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:26" ht="12.75">
       <c r="A105" s="17"/>
       <c r="B105" s="17"/>
       <c r="C105" s="16"/>
@@ -5306,7 +5307,7 @@
       <c r="Y105" s="18"/>
       <c r="Z105" s="18"/>
     </row>
-    <row r="106" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:26" ht="12.75">
       <c r="A106" s="17"/>
       <c r="B106" s="17"/>
       <c r="C106" s="16"/>
@@ -5334,7 +5335,7 @@
       <c r="Y106" s="18"/>
       <c r="Z106" s="18"/>
     </row>
-    <row r="107" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:26" ht="12.75">
       <c r="A107" s="17"/>
       <c r="B107" s="17"/>
       <c r="C107" s="16"/>
@@ -5362,7 +5363,7 @@
       <c r="Y107" s="18"/>
       <c r="Z107" s="18"/>
     </row>
-    <row r="108" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:26" ht="12.75">
       <c r="A108" s="17"/>
       <c r="B108" s="17"/>
       <c r="C108" s="16"/>
@@ -5390,7 +5391,7 @@
       <c r="Y108" s="18"/>
       <c r="Z108" s="18"/>
     </row>
-    <row r="109" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:26" ht="12.75">
       <c r="A109" s="17"/>
       <c r="B109" s="17"/>
       <c r="C109" s="16"/>
@@ -5418,7 +5419,7 @@
       <c r="Y109" s="18"/>
       <c r="Z109" s="18"/>
     </row>
-    <row r="110" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:26" ht="12.75">
       <c r="A110" s="17"/>
       <c r="B110" s="17"/>
       <c r="C110" s="16"/>
@@ -5446,7 +5447,7 @@
       <c r="Y110" s="18"/>
       <c r="Z110" s="18"/>
     </row>
-    <row r="111" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:26" ht="12.75">
       <c r="A111" s="17"/>
       <c r="B111" s="17"/>
       <c r="C111" s="16"/>
@@ -5474,7 +5475,7 @@
       <c r="Y111" s="18"/>
       <c r="Z111" s="18"/>
     </row>
-    <row r="112" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:26" ht="12.75">
       <c r="A112" s="17"/>
       <c r="B112" s="17"/>
       <c r="C112" s="16"/>
@@ -5502,7 +5503,7 @@
       <c r="Y112" s="18"/>
       <c r="Z112" s="18"/>
     </row>
-    <row r="113" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:26" ht="12.75">
       <c r="A113" s="17"/>
       <c r="B113" s="17"/>
       <c r="C113" s="16"/>
@@ -5530,7 +5531,7 @@
       <c r="Y113" s="18"/>
       <c r="Z113" s="18"/>
     </row>
-    <row r="114" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:26" ht="12.75">
       <c r="A114" s="17"/>
       <c r="B114" s="17"/>
       <c r="C114" s="16"/>
@@ -5558,7 +5559,7 @@
       <c r="Y114" s="18"/>
       <c r="Z114" s="18"/>
     </row>
-    <row r="115" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:26" ht="12.75">
       <c r="A115" s="17"/>
       <c r="B115" s="17"/>
       <c r="C115" s="16"/>
@@ -5586,7 +5587,7 @@
       <c r="Y115" s="18"/>
       <c r="Z115" s="18"/>
     </row>
-    <row r="116" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:26" ht="12.75">
       <c r="A116" s="17"/>
       <c r="B116" s="17"/>
       <c r="C116" s="16"/>
@@ -5614,7 +5615,7 @@
       <c r="Y116" s="18"/>
       <c r="Z116" s="18"/>
     </row>
-    <row r="117" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:26" ht="12.75">
       <c r="A117" s="17"/>
       <c r="B117" s="17"/>
       <c r="C117" s="16"/>
@@ -5642,7 +5643,7 @@
       <c r="Y117" s="18"/>
       <c r="Z117" s="18"/>
     </row>
-    <row r="118" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:26" ht="12.75">
       <c r="A118" s="17"/>
       <c r="B118" s="17"/>
       <c r="C118" s="16"/>
@@ -5670,7 +5671,7 @@
       <c r="Y118" s="18"/>
       <c r="Z118" s="18"/>
     </row>
-    <row r="119" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:26" ht="12.75">
       <c r="A119" s="17"/>
       <c r="B119" s="17"/>
       <c r="C119" s="16"/>
@@ -5698,7 +5699,7 @@
       <c r="Y119" s="18"/>
       <c r="Z119" s="18"/>
     </row>
-    <row r="120" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:26" ht="12.75">
       <c r="A120" s="17"/>
       <c r="B120" s="17"/>
       <c r="C120" s="16"/>
@@ -5726,7 +5727,7 @@
       <c r="Y120" s="18"/>
       <c r="Z120" s="18"/>
     </row>
-    <row r="121" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:26" ht="12.75">
       <c r="A121" s="17"/>
       <c r="B121" s="17"/>
       <c r="C121" s="16"/>
@@ -5754,7 +5755,7 @@
       <c r="Y121" s="18"/>
       <c r="Z121" s="18"/>
     </row>
-    <row r="122" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:26" ht="12.75">
       <c r="A122" s="17"/>
       <c r="B122" s="17"/>
       <c r="C122" s="16"/>
@@ -5782,7 +5783,7 @@
       <c r="Y122" s="18"/>
       <c r="Z122" s="18"/>
     </row>
-    <row r="123" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:26" ht="12.75">
       <c r="A123" s="17"/>
       <c r="B123" s="17"/>
       <c r="C123" s="16"/>
@@ -5810,7 +5811,7 @@
       <c r="Y123" s="18"/>
       <c r="Z123" s="18"/>
     </row>
-    <row r="124" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:26" ht="12.75">
       <c r="A124" s="17"/>
       <c r="B124" s="17"/>
       <c r="C124" s="16"/>
@@ -5838,7 +5839,7 @@
       <c r="Y124" s="18"/>
       <c r="Z124" s="18"/>
     </row>
-    <row r="125" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:26" ht="12.75">
       <c r="A125" s="17"/>
       <c r="B125" s="17"/>
       <c r="C125" s="16"/>
@@ -5866,7 +5867,7 @@
       <c r="Y125" s="18"/>
       <c r="Z125" s="18"/>
     </row>
-    <row r="126" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:26" ht="12.75">
       <c r="A126" s="17"/>
       <c r="B126" s="17"/>
       <c r="C126" s="16"/>
@@ -5894,7 +5895,7 @@
       <c r="Y126" s="18"/>
       <c r="Z126" s="18"/>
     </row>
-    <row r="127" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:26" ht="12.75">
       <c r="A127" s="18"/>
       <c r="B127" s="18"/>
       <c r="C127" s="16"/>
@@ -5922,7 +5923,7 @@
       <c r="Y127" s="18"/>
       <c r="Z127" s="18"/>
     </row>
-    <row r="128" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:26" ht="12.75">
       <c r="A128" s="18"/>
       <c r="B128" s="17"/>
       <c r="C128" s="16"/>
@@ -5950,7 +5951,7 @@
       <c r="Y128" s="18"/>
       <c r="Z128" s="18"/>
     </row>
-    <row r="129" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:26" ht="12.75">
       <c r="A129" s="18"/>
       <c r="B129" s="23"/>
       <c r="C129" s="16"/>
@@ -5978,7 +5979,7 @@
       <c r="Y129" s="18"/>
       <c r="Z129" s="18"/>
     </row>
-    <row r="130" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:26" ht="12.75">
       <c r="A130" s="18"/>
       <c r="B130" s="18"/>
       <c r="C130" s="16"/>
@@ -6006,7 +6007,7 @@
       <c r="Y130" s="18"/>
       <c r="Z130" s="18"/>
     </row>
-    <row r="131" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:26" ht="12.75">
       <c r="A131" s="17"/>
       <c r="B131" s="17"/>
       <c r="C131" s="16"/>
@@ -6034,7 +6035,7 @@
       <c r="Y131" s="18"/>
       <c r="Z131" s="18"/>
     </row>
-    <row r="132" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:26" ht="12.75">
       <c r="A132" s="17"/>
       <c r="B132" s="17"/>
       <c r="C132" s="16"/>
@@ -6062,7 +6063,7 @@
       <c r="Y132" s="18"/>
       <c r="Z132" s="18"/>
     </row>
-    <row r="133" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:26" ht="12.75">
       <c r="A133" s="17"/>
       <c r="B133" s="18"/>
       <c r="C133" s="16"/>
@@ -6090,7 +6091,7 @@
       <c r="Y133" s="18"/>
       <c r="Z133" s="18"/>
     </row>
-    <row r="134" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:26" ht="12.75">
       <c r="A134" s="17"/>
       <c r="B134" s="18"/>
       <c r="C134" s="16"/>
@@ -6118,7 +6119,7 @@
       <c r="Y134" s="18"/>
       <c r="Z134" s="18"/>
     </row>
-    <row r="135" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:26" ht="12.75">
       <c r="A135" s="17"/>
       <c r="B135" s="18"/>
       <c r="C135" s="16"/>
@@ -6146,7 +6147,7 @@
       <c r="Y135" s="18"/>
       <c r="Z135" s="18"/>
     </row>
-    <row r="136" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:26" ht="12.75">
       <c r="A136" s="18"/>
       <c r="B136" s="18"/>
       <c r="C136" s="16"/>
@@ -6174,7 +6175,7 @@
       <c r="Y136" s="18"/>
       <c r="Z136" s="18"/>
     </row>
-    <row r="137" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:26" ht="12.75">
       <c r="A137" s="18"/>
       <c r="B137" s="17"/>
       <c r="C137" s="16"/>
@@ -6202,7 +6203,7 @@
       <c r="Y137" s="18"/>
       <c r="Z137" s="18"/>
     </row>
-    <row r="138" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:26" ht="12.75">
       <c r="A138" s="18"/>
       <c r="B138" s="17"/>
       <c r="C138" s="16"/>
@@ -6230,7 +6231,7 @@
       <c r="Y138" s="18"/>
       <c r="Z138" s="18"/>
     </row>
-    <row r="139" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:26" ht="12.75">
       <c r="A139" s="18"/>
       <c r="B139" s="18"/>
       <c r="C139" s="16"/>
@@ -6258,7 +6259,7 @@
       <c r="Y139" s="18"/>
       <c r="Z139" s="18"/>
     </row>
-    <row r="140" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:26" ht="12.75">
       <c r="A140" s="17"/>
       <c r="B140" s="18"/>
       <c r="C140" s="16"/>
@@ -6286,7 +6287,7 @@
       <c r="Y140" s="18"/>
       <c r="Z140" s="18"/>
     </row>
-    <row r="141" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:26" ht="12.75">
       <c r="A141" s="17"/>
       <c r="B141" s="18"/>
       <c r="C141" s="16"/>
@@ -6314,7 +6315,7 @@
       <c r="Y141" s="18"/>
       <c r="Z141" s="18"/>
     </row>
-    <row r="142" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:26" ht="12.75">
       <c r="A142" s="17"/>
       <c r="B142" s="18"/>
       <c r="C142" s="16"/>
@@ -6342,7 +6343,7 @@
       <c r="Y142" s="18"/>
       <c r="Z142" s="18"/>
     </row>
-    <row r="143" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:26" ht="12.75">
       <c r="A143" s="17"/>
       <c r="B143" s="18"/>
       <c r="C143" s="16"/>
@@ -6370,7 +6371,7 @@
       <c r="Y143" s="18"/>
       <c r="Z143" s="18"/>
     </row>
-    <row r="144" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:26" ht="12.75">
       <c r="A144" s="17"/>
       <c r="B144" s="18"/>
       <c r="C144" s="16"/>
@@ -6398,7 +6399,7 @@
       <c r="Y144" s="18"/>
       <c r="Z144" s="18"/>
     </row>
-    <row r="145" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:26" ht="12.75">
       <c r="A145" s="17"/>
       <c r="B145" s="18"/>
       <c r="C145" s="16"/>
@@ -6426,7 +6427,7 @@
       <c r="Y145" s="18"/>
       <c r="Z145" s="18"/>
     </row>
-    <row r="146" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:26" ht="12.75">
       <c r="A146" s="17"/>
       <c r="B146" s="17"/>
       <c r="C146" s="16"/>
@@ -6454,7 +6455,7 @@
       <c r="Y146" s="18"/>
       <c r="Z146" s="18"/>
     </row>
-    <row r="147" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:26" ht="12.75">
       <c r="A147" s="17"/>
       <c r="B147" s="17"/>
       <c r="C147" s="16"/>
@@ -6482,7 +6483,7 @@
       <c r="Y147" s="18"/>
       <c r="Z147" s="18"/>
     </row>
-    <row r="148" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:26" ht="12.75">
       <c r="A148" s="18"/>
       <c r="B148" s="18"/>
       <c r="C148" s="16"/>
@@ -6510,7 +6511,7 @@
       <c r="Y148" s="18"/>
       <c r="Z148" s="18"/>
     </row>
-    <row r="149" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:26" ht="12.75">
       <c r="A149" s="18"/>
       <c r="B149" s="23"/>
       <c r="C149" s="16"/>
@@ -6538,7 +6539,7 @@
       <c r="Y149" s="18"/>
       <c r="Z149" s="18"/>
     </row>
-    <row r="150" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:26" ht="12.75">
       <c r="A150" s="18"/>
       <c r="B150" s="23"/>
       <c r="C150" s="16"/>
@@ -6566,7 +6567,7 @@
       <c r="Y150" s="18"/>
       <c r="Z150" s="18"/>
     </row>
-    <row r="151" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:26" ht="12.75">
       <c r="A151" s="18"/>
       <c r="B151" s="18"/>
       <c r="C151" s="16"/>
@@ -6594,7 +6595,7 @@
       <c r="Y151" s="18"/>
       <c r="Z151" s="18"/>
     </row>
-    <row r="152" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:26" ht="12.75">
       <c r="A152" s="17"/>
       <c r="B152" s="17"/>
       <c r="C152" s="16"/>
@@ -6622,7 +6623,7 @@
       <c r="Y152" s="18"/>
       <c r="Z152" s="18"/>
     </row>
-    <row r="153" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:26" ht="12.75">
       <c r="A153" s="17"/>
       <c r="B153" s="17"/>
       <c r="C153" s="16"/>
@@ -6650,7 +6651,7 @@
       <c r="Y153" s="18"/>
       <c r="Z153" s="18"/>
     </row>
-    <row r="154" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:26" ht="12.75">
       <c r="A154" s="18"/>
       <c r="B154" s="18"/>
       <c r="C154" s="16"/>
@@ -6678,7 +6679,7 @@
       <c r="Y154" s="18"/>
       <c r="Z154" s="18"/>
     </row>
-    <row r="155" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:26" ht="12.75">
       <c r="A155" s="17"/>
       <c r="B155" s="18"/>
       <c r="C155" s="16"/>
@@ -6706,7 +6707,7 @@
       <c r="Y155" s="18"/>
       <c r="Z155" s="18"/>
     </row>
-    <row r="156" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:26" ht="12.75">
       <c r="A156" s="18"/>
       <c r="B156" s="18"/>
       <c r="C156" s="16"/>
@@ -6734,7 +6735,7 @@
       <c r="Y156" s="18"/>
       <c r="Z156" s="18"/>
     </row>
-    <row r="157" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:26" ht="12.75">
       <c r="A157" s="18"/>
       <c r="B157" s="18"/>
       <c r="C157" s="16"/>
@@ -6762,7 +6763,7 @@
       <c r="Y157" s="18"/>
       <c r="Z157" s="18"/>
     </row>
-    <row r="158" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:26" ht="12.75">
       <c r="A158" s="22"/>
       <c r="B158" s="17"/>
       <c r="C158" s="16"/>
@@ -6790,7 +6791,7 @@
       <c r="Y158" s="18"/>
       <c r="Z158" s="18"/>
     </row>
-    <row r="159" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:26" ht="12.75">
       <c r="A159" s="22"/>
       <c r="B159" s="17"/>
       <c r="C159" s="16"/>
@@ -6818,7 +6819,7 @@
       <c r="Y159" s="18"/>
       <c r="Z159" s="18"/>
     </row>
-    <row r="160" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:26" ht="12.75">
       <c r="A160" s="22"/>
       <c r="B160" s="17"/>
       <c r="C160" s="16"/>
@@ -6846,7 +6847,7 @@
       <c r="Y160" s="18"/>
       <c r="Z160" s="18"/>
     </row>
-    <row r="161" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:26" ht="12.75">
       <c r="A161" s="22"/>
       <c r="B161" s="17"/>
       <c r="C161" s="16"/>
@@ -6874,7 +6875,7 @@
       <c r="Y161" s="18"/>
       <c r="Z161" s="18"/>
     </row>
-    <row r="162" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:26" ht="12.75">
       <c r="A162" s="18"/>
       <c r="B162" s="18"/>
       <c r="C162" s="16"/>
@@ -6902,7 +6903,7 @@
       <c r="Y162" s="18"/>
       <c r="Z162" s="18"/>
     </row>
-    <row r="163" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:26" ht="12.75">
       <c r="A163" s="18"/>
       <c r="B163" s="17"/>
       <c r="C163" s="16"/>
@@ -6930,7 +6931,7 @@
       <c r="Y163" s="18"/>
       <c r="Z163" s="18"/>
     </row>
-    <row r="164" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:26" ht="12.75">
       <c r="A164" s="18"/>
       <c r="B164" s="17"/>
       <c r="C164" s="16"/>
@@ -6958,7 +6959,7 @@
       <c r="Y164" s="18"/>
       <c r="Z164" s="18"/>
     </row>
-    <row r="165" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:26" ht="12.75">
       <c r="A165" s="18"/>
       <c r="B165" s="17"/>
       <c r="C165" s="16"/>
@@ -6986,7 +6987,7 @@
       <c r="Y165" s="18"/>
       <c r="Z165" s="18"/>
     </row>
-    <row r="166" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:26" ht="12.75">
       <c r="A166" s="18"/>
       <c r="B166" s="17"/>
       <c r="C166" s="16"/>
@@ -7014,7 +7015,7 @@
       <c r="Y166" s="18"/>
       <c r="Z166" s="18"/>
     </row>
-    <row r="167" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:26" ht="12.75">
       <c r="A167" s="18"/>
       <c r="B167" s="17"/>
       <c r="C167" s="16"/>
@@ -7042,7 +7043,7 @@
       <c r="Y167" s="18"/>
       <c r="Z167" s="18"/>
     </row>
-    <row r="168" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:26" ht="12.75">
       <c r="A168" s="18"/>
       <c r="B168" s="17"/>
       <c r="C168" s="16"/>
@@ -7070,7 +7071,7 @@
       <c r="Y168" s="18"/>
       <c r="Z168" s="18"/>
     </row>
-    <row r="169" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:26" ht="12.75">
       <c r="A169" s="18"/>
       <c r="B169" s="17"/>
       <c r="C169" s="16"/>
@@ -7098,7 +7099,7 @@
       <c r="Y169" s="18"/>
       <c r="Z169" s="18"/>
     </row>
-    <row r="170" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:26" ht="12.75">
       <c r="A170" s="17"/>
       <c r="B170" s="17"/>
       <c r="C170" s="16"/>
@@ -7126,7 +7127,7 @@
       <c r="Y170" s="18"/>
       <c r="Z170" s="18"/>
     </row>
-    <row r="171" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:26" ht="12.75">
       <c r="A171" s="17"/>
       <c r="B171" s="17"/>
       <c r="C171" s="16"/>
@@ -7154,7 +7155,7 @@
       <c r="Y171" s="18"/>
       <c r="Z171" s="18"/>
     </row>
-    <row r="172" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:26" ht="12.75">
       <c r="A172" s="17"/>
       <c r="B172" s="17"/>
       <c r="C172" s="16"/>
@@ -7182,7 +7183,7 @@
       <c r="Y172" s="18"/>
       <c r="Z172" s="18"/>
     </row>
-    <row r="173" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:26" ht="12.75">
       <c r="A173" s="17"/>
       <c r="B173" s="17"/>
       <c r="C173" s="16"/>
@@ -7210,7 +7211,7 @@
       <c r="Y173" s="18"/>
       <c r="Z173" s="18"/>
     </row>
-    <row r="174" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:26" ht="12.75">
       <c r="A174" s="17"/>
       <c r="B174" s="17"/>
       <c r="C174" s="16"/>
@@ -7238,7 +7239,7 @@
       <c r="Y174" s="18"/>
       <c r="Z174" s="18"/>
     </row>
-    <row r="175" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:26" ht="12.75">
       <c r="A175" s="17"/>
       <c r="B175" s="17"/>
       <c r="C175" s="16"/>
@@ -7266,7 +7267,7 @@
       <c r="Y175" s="18"/>
       <c r="Z175" s="18"/>
     </row>
-    <row r="176" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:26" ht="12.75">
       <c r="A176" s="18"/>
       <c r="B176" s="18"/>
       <c r="C176" s="16"/>
@@ -7294,7 +7295,7 @@
       <c r="Y176" s="18"/>
       <c r="Z176" s="18"/>
     </row>
-    <row r="177" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:26" ht="12.75">
       <c r="A177" s="18"/>
       <c r="B177" s="17"/>
       <c r="C177" s="16"/>
@@ -7322,7 +7323,7 @@
       <c r="Y177" s="18"/>
       <c r="Z177" s="18"/>
     </row>
-    <row r="178" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:26" ht="12.75">
       <c r="A178" s="18"/>
       <c r="B178" s="17"/>
       <c r="C178" s="16"/>
@@ -7350,7 +7351,7 @@
       <c r="Y178" s="18"/>
       <c r="Z178" s="18"/>
     </row>
-    <row r="179" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:26" ht="12.75">
       <c r="A179" s="18"/>
       <c r="B179" s="17"/>
       <c r="C179" s="16"/>
@@ -7378,7 +7379,7 @@
       <c r="Y179" s="18"/>
       <c r="Z179" s="18"/>
     </row>
-    <row r="180" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:26" ht="12.75">
       <c r="A180" s="18"/>
       <c r="B180" s="17"/>
       <c r="C180" s="16"/>
@@ -7406,7 +7407,7 @@
       <c r="Y180" s="18"/>
       <c r="Z180" s="18"/>
     </row>
-    <row r="181" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:26" ht="12.75">
       <c r="A181" s="18"/>
       <c r="B181" s="17"/>
       <c r="C181" s="16"/>
@@ -7434,7 +7435,7 @@
       <c r="Y181" s="18"/>
       <c r="Z181" s="18"/>
     </row>
-    <row r="182" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:26" ht="12.75">
       <c r="A182" s="18"/>
       <c r="B182" s="17"/>
       <c r="C182" s="16"/>
@@ -7462,7 +7463,7 @@
       <c r="Y182" s="18"/>
       <c r="Z182" s="18"/>
     </row>
-    <row r="183" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:26" ht="12.75">
       <c r="A183" s="18"/>
       <c r="B183" s="17"/>
       <c r="C183" s="16"/>
@@ -7490,7 +7491,7 @@
       <c r="Y183" s="18"/>
       <c r="Z183" s="18"/>
     </row>
-    <row r="184" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:26" ht="12.75">
       <c r="A184" s="18"/>
       <c r="B184" s="17"/>
       <c r="C184" s="16"/>
@@ -7518,7 +7519,7 @@
       <c r="Y184" s="18"/>
       <c r="Z184" s="18"/>
     </row>
-    <row r="185" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:26" ht="12.75">
       <c r="A185" s="18"/>
       <c r="B185" s="18"/>
       <c r="C185" s="16"/>
@@ -7546,7 +7547,7 @@
       <c r="Y185" s="18"/>
       <c r="Z185" s="18"/>
     </row>
-    <row r="186" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:26" ht="12.75">
       <c r="A186" s="17"/>
       <c r="B186" s="18"/>
       <c r="C186" s="16"/>
@@ -7574,7 +7575,7 @@
       <c r="Y186" s="18"/>
       <c r="Z186" s="18"/>
     </row>
-    <row r="187" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:26" ht="12.75">
       <c r="A187" s="17"/>
       <c r="B187" s="18"/>
       <c r="C187" s="16"/>
@@ -7602,7 +7603,7 @@
       <c r="Y187" s="18"/>
       <c r="Z187" s="18"/>
     </row>
-    <row r="188" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:26" ht="12.75">
       <c r="A188" s="17"/>
       <c r="B188" s="18"/>
       <c r="C188" s="16"/>
@@ -7630,7 +7631,7 @@
       <c r="Y188" s="18"/>
       <c r="Z188" s="18"/>
     </row>
-    <row r="189" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:26" ht="12.75">
       <c r="A189" s="17"/>
       <c r="B189" s="18"/>
       <c r="C189" s="16"/>
@@ -7658,7 +7659,7 @@
       <c r="Y189" s="18"/>
       <c r="Z189" s="18"/>
     </row>
-    <row r="190" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:26" ht="12.75">
       <c r="A190" s="17"/>
       <c r="B190" s="18"/>
       <c r="C190" s="16"/>
@@ -7686,7 +7687,7 @@
       <c r="Y190" s="18"/>
       <c r="Z190" s="18"/>
     </row>
-    <row r="191" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:26" ht="12.75">
       <c r="A191" s="17"/>
       <c r="B191" s="18"/>
       <c r="C191" s="16"/>
@@ -7714,7 +7715,7 @@
       <c r="Y191" s="18"/>
       <c r="Z191" s="18"/>
     </row>
-    <row r="192" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:26" ht="12.75">
       <c r="A192" s="17"/>
       <c r="B192" s="17"/>
       <c r="C192" s="16"/>
@@ -7742,7 +7743,7 @@
       <c r="Y192" s="18"/>
       <c r="Z192" s="18"/>
     </row>
-    <row r="193" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:26" ht="12.75">
       <c r="A193" s="17"/>
       <c r="B193" s="18"/>
       <c r="C193" s="16"/>
@@ -7770,7 +7771,7 @@
       <c r="Y193" s="18"/>
       <c r="Z193" s="18"/>
     </row>
-    <row r="194" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:26" ht="12.75">
       <c r="A194" s="18"/>
       <c r="B194" s="18"/>
       <c r="C194" s="16"/>
@@ -7798,7 +7799,7 @@
       <c r="Y194" s="18"/>
       <c r="Z194" s="18"/>
     </row>
-    <row r="195" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:26" ht="12.75">
       <c r="A195" s="17"/>
       <c r="B195" s="17"/>
       <c r="C195" s="16"/>
@@ -7826,7 +7827,7 @@
       <c r="Y195" s="18"/>
       <c r="Z195" s="18"/>
     </row>
-    <row r="196" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:26" ht="12.75">
       <c r="A196" s="17"/>
       <c r="B196" s="17"/>
       <c r="C196" s="16"/>
@@ -7854,7 +7855,7 @@
       <c r="Y196" s="18"/>
       <c r="Z196" s="18"/>
     </row>
-    <row r="197" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:26" ht="12.75">
       <c r="A197" s="17"/>
       <c r="B197" s="17"/>
       <c r="C197" s="16"/>
@@ -7882,7 +7883,7 @@
       <c r="Y197" s="18"/>
       <c r="Z197" s="18"/>
     </row>
-    <row r="198" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:26" ht="12.75">
       <c r="A198" s="17"/>
       <c r="B198" s="17"/>
       <c r="C198" s="16"/>
@@ -7910,7 +7911,7 @@
       <c r="Y198" s="18"/>
       <c r="Z198" s="18"/>
     </row>
-    <row r="199" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:26" ht="12.75">
       <c r="A199" s="17"/>
       <c r="B199" s="17"/>
       <c r="C199" s="16"/>
@@ -7938,7 +7939,7 @@
       <c r="Y199" s="18"/>
       <c r="Z199" s="18"/>
     </row>
-    <row r="200" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:26" ht="12.75">
       <c r="A200" s="17"/>
       <c r="B200" s="17"/>
       <c r="C200" s="16"/>
@@ -7966,7 +7967,7 @@
       <c r="Y200" s="18"/>
       <c r="Z200" s="18"/>
     </row>
-    <row r="201" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:26" ht="12.75">
       <c r="A201" s="17"/>
       <c r="B201" s="17"/>
       <c r="C201" s="16"/>
@@ -7994,7 +7995,7 @@
       <c r="Y201" s="18"/>
       <c r="Z201" s="18"/>
     </row>
-    <row r="202" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:26" ht="12.75">
       <c r="A202" s="17"/>
       <c r="B202" s="17"/>
       <c r="C202" s="16"/>
@@ -8022,7 +8023,7 @@
       <c r="Y202" s="18"/>
       <c r="Z202" s="18"/>
     </row>
-    <row r="203" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:26" ht="12.75">
       <c r="A203" s="18"/>
       <c r="B203" s="18"/>
       <c r="C203" s="16"/>
@@ -8050,7 +8051,7 @@
       <c r="Y203" s="18"/>
       <c r="Z203" s="18"/>
     </row>
-    <row r="204" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:26" ht="12.75">
       <c r="A204" s="17"/>
       <c r="B204" s="18"/>
       <c r="C204" s="16"/>
@@ -8078,7 +8079,7 @@
       <c r="Y204" s="18"/>
       <c r="Z204" s="18"/>
     </row>
-    <row r="205" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:26" ht="12.75">
       <c r="A205" s="17"/>
       <c r="B205" s="18"/>
       <c r="C205" s="16"/>
@@ -8106,7 +8107,7 @@
       <c r="Y205" s="18"/>
       <c r="Z205" s="18"/>
     </row>
-    <row r="206" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:26" ht="12.75">
       <c r="A206" s="17"/>
       <c r="B206" s="18"/>
       <c r="C206" s="16"/>
@@ -8134,7 +8135,7 @@
       <c r="Y206" s="18"/>
       <c r="Z206" s="18"/>
     </row>
-    <row r="207" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:26" ht="12.75">
       <c r="A207" s="17"/>
       <c r="B207" s="18"/>
       <c r="C207" s="16"/>
@@ -8162,7 +8163,7 @@
       <c r="Y207" s="18"/>
       <c r="Z207" s="18"/>
     </row>
-    <row r="208" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:26" ht="12.75">
       <c r="A208" s="17"/>
       <c r="B208" s="18"/>
       <c r="C208" s="16"/>
@@ -8190,7 +8191,7 @@
       <c r="Y208" s="18"/>
       <c r="Z208" s="18"/>
     </row>
-    <row r="209" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:26" ht="12.75">
       <c r="A209" s="17"/>
       <c r="B209" s="18"/>
       <c r="C209" s="16"/>
@@ -8218,7 +8219,7 @@
       <c r="Y209" s="18"/>
       <c r="Z209" s="18"/>
     </row>
-    <row r="210" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:26" ht="12.75">
       <c r="A210" s="17"/>
       <c r="B210" s="18"/>
       <c r="C210" s="16"/>
@@ -8246,7 +8247,7 @@
       <c r="Y210" s="18"/>
       <c r="Z210" s="18"/>
     </row>
-    <row r="211" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:26" ht="12.75">
       <c r="A211" s="17"/>
       <c r="B211" s="18"/>
       <c r="C211" s="16"/>
@@ -8274,7 +8275,7 @@
       <c r="Y211" s="18"/>
       <c r="Z211" s="18"/>
     </row>
-    <row r="212" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:26" ht="12.75">
       <c r="A212" s="18"/>
       <c r="B212" s="18"/>
       <c r="C212" s="16"/>
@@ -8302,7 +8303,7 @@
       <c r="Y212" s="18"/>
       <c r="Z212" s="18"/>
     </row>
-    <row r="213" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:26" ht="12.75">
       <c r="A213" s="17"/>
       <c r="B213" s="18"/>
       <c r="C213" s="16"/>
@@ -8330,7 +8331,7 @@
       <c r="Y213" s="18"/>
       <c r="Z213" s="18"/>
     </row>
-    <row r="214" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:26" ht="12.75">
       <c r="A214" s="17"/>
       <c r="B214" s="18"/>
       <c r="C214" s="16"/>
@@ -8358,7 +8359,7 @@
       <c r="Y214" s="18"/>
       <c r="Z214" s="18"/>
     </row>
-    <row r="215" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:26" ht="12.75">
       <c r="A215" s="17"/>
       <c r="B215" s="18"/>
       <c r="C215" s="16"/>
@@ -8386,7 +8387,7 @@
       <c r="Y215" s="18"/>
       <c r="Z215" s="18"/>
     </row>
-    <row r="216" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:26" ht="12.75">
       <c r="A216" s="17"/>
       <c r="B216" s="18"/>
       <c r="C216" s="16"/>
@@ -8414,7 +8415,7 @@
       <c r="Y216" s="18"/>
       <c r="Z216" s="18"/>
     </row>
-    <row r="217" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:26" ht="12.75">
       <c r="A217" s="17"/>
       <c r="B217" s="18"/>
       <c r="C217" s="16"/>
@@ -8442,7 +8443,7 @@
       <c r="Y217" s="18"/>
       <c r="Z217" s="18"/>
     </row>
-    <row r="218" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:26" ht="12.75">
       <c r="A218" s="17"/>
       <c r="B218" s="18"/>
       <c r="C218" s="16"/>
@@ -8470,7 +8471,7 @@
       <c r="Y218" s="18"/>
       <c r="Z218" s="18"/>
     </row>
-    <row r="219" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:26" ht="12.75">
       <c r="A219" s="17"/>
       <c r="B219" s="18"/>
       <c r="C219" s="16"/>
@@ -8498,7 +8499,7 @@
       <c r="Y219" s="18"/>
       <c r="Z219" s="18"/>
     </row>
-    <row r="220" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:26" ht="12.75">
       <c r="A220" s="17"/>
       <c r="B220" s="18"/>
       <c r="C220" s="16"/>
@@ -8526,7 +8527,7 @@
       <c r="Y220" s="18"/>
       <c r="Z220" s="18"/>
     </row>
-    <row r="221" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:26" ht="12.75">
       <c r="A221" s="18"/>
       <c r="B221" s="18"/>
       <c r="C221" s="16"/>
@@ -8554,7 +8555,7 @@
       <c r="Y221" s="18"/>
       <c r="Z221" s="18"/>
     </row>
-    <row r="222" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:26" ht="12.75">
       <c r="A222" s="17"/>
       <c r="B222" s="18"/>
       <c r="C222" s="16"/>
@@ -8582,7 +8583,7 @@
       <c r="Y222" s="18"/>
       <c r="Z222" s="18"/>
     </row>
-    <row r="223" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:26" ht="12.75">
       <c r="A223" s="17"/>
       <c r="B223" s="18"/>
       <c r="C223" s="16"/>
@@ -8610,7 +8611,7 @@
       <c r="Y223" s="18"/>
       <c r="Z223" s="18"/>
     </row>
-    <row r="224" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:26" ht="12.75">
       <c r="A224" s="17"/>
       <c r="B224" s="18"/>
       <c r="C224" s="16"/>
@@ -8638,7 +8639,7 @@
       <c r="Y224" s="18"/>
       <c r="Z224" s="18"/>
     </row>
-    <row r="225" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:26" ht="12.75">
       <c r="A225" s="17"/>
       <c r="B225" s="18"/>
       <c r="C225" s="16"/>
@@ -8666,7 +8667,7 @@
       <c r="Y225" s="18"/>
       <c r="Z225" s="18"/>
     </row>
-    <row r="226" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:26" ht="12.75">
       <c r="A226" s="17"/>
       <c r="B226" s="18"/>
       <c r="C226" s="16"/>
@@ -8694,7 +8695,7 @@
       <c r="Y226" s="18"/>
       <c r="Z226" s="18"/>
     </row>
-    <row r="227" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:26" ht="12.75">
       <c r="A227" s="17"/>
       <c r="B227" s="18"/>
       <c r="C227" s="16"/>
@@ -8722,7 +8723,7 @@
       <c r="Y227" s="18"/>
       <c r="Z227" s="18"/>
     </row>
-    <row r="228" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:26" ht="12.75">
       <c r="A228" s="17"/>
       <c r="B228" s="18"/>
       <c r="C228" s="16"/>
@@ -8750,7 +8751,7 @@
       <c r="Y228" s="18"/>
       <c r="Z228" s="18"/>
     </row>
-    <row r="229" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:26" ht="12.75">
       <c r="A229" s="17"/>
       <c r="B229" s="18"/>
       <c r="C229" s="16"/>
@@ -8778,7 +8779,7 @@
       <c r="Y229" s="18"/>
       <c r="Z229" s="18"/>
     </row>
-    <row r="230" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:26" ht="12.75">
       <c r="A230" s="18"/>
       <c r="B230" s="18"/>
       <c r="C230" s="16"/>
@@ -8806,7 +8807,7 @@
       <c r="Y230" s="18"/>
       <c r="Z230" s="18"/>
     </row>
-    <row r="231" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:26" ht="12.75">
       <c r="A231" s="18"/>
       <c r="B231" s="17"/>
       <c r="C231" s="16"/>
@@ -8834,7 +8835,7 @@
       <c r="Y231" s="18"/>
       <c r="Z231" s="18"/>
     </row>
-    <row r="232" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:26" ht="12.75">
       <c r="A232" s="18"/>
       <c r="B232" s="17"/>
       <c r="C232" s="16"/>
@@ -8862,7 +8863,7 @@
       <c r="Y232" s="18"/>
       <c r="Z232" s="18"/>
     </row>
-    <row r="233" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:26" ht="12.75">
       <c r="A233" s="18"/>
       <c r="B233" s="17"/>
       <c r="C233" s="16"/>
@@ -8890,7 +8891,7 @@
       <c r="Y233" s="18"/>
       <c r="Z233" s="18"/>
     </row>
-    <row r="234" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:26" ht="12.75">
       <c r="A234" s="18"/>
       <c r="B234" s="18"/>
       <c r="C234" s="16"/>
@@ -8918,7 +8919,7 @@
       <c r="Y234" s="18"/>
       <c r="Z234" s="18"/>
     </row>
-    <row r="235" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:26" ht="12.75">
       <c r="A235" s="17"/>
       <c r="B235" s="18"/>
       <c r="C235" s="16"/>
@@ -8946,7 +8947,7 @@
       <c r="Y235" s="18"/>
       <c r="Z235" s="18"/>
     </row>
-    <row r="236" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:26" ht="12.75">
       <c r="A236" s="17"/>
       <c r="B236" s="18"/>
       <c r="C236" s="16"/>
@@ -8974,7 +8975,7 @@
       <c r="Y236" s="18"/>
       <c r="Z236" s="18"/>
     </row>
-    <row r="237" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:26" ht="12.75">
       <c r="A237" s="17"/>
       <c r="B237" s="18"/>
       <c r="C237" s="16"/>
@@ -9002,7 +9003,7 @@
       <c r="Y237" s="18"/>
       <c r="Z237" s="18"/>
     </row>
-    <row r="238" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:26" ht="12.75">
       <c r="A238" s="18"/>
       <c r="B238" s="18"/>
       <c r="C238" s="16"/>
@@ -9030,7 +9031,7 @@
       <c r="Y238" s="18"/>
       <c r="Z238" s="18"/>
     </row>
-    <row r="239" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:26" ht="12.75">
       <c r="A239" s="18"/>
       <c r="B239" s="23"/>
       <c r="C239" s="16"/>
@@ -9058,7 +9059,7 @@
       <c r="Y239" s="18"/>
       <c r="Z239" s="18"/>
     </row>
-    <row r="240" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:26" ht="12.75">
       <c r="A240" s="18"/>
       <c r="B240" s="23"/>
       <c r="C240" s="16"/>
@@ -9086,7 +9087,7 @@
       <c r="Y240" s="18"/>
       <c r="Z240" s="18"/>
     </row>
-    <row r="241" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:26" ht="12.75">
       <c r="A241" s="18"/>
       <c r="B241" s="23"/>
       <c r="C241" s="16"/>
@@ -9114,7 +9115,7 @@
       <c r="Y241" s="18"/>
       <c r="Z241" s="18"/>
     </row>
-    <row r="242" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:26" ht="12.75">
       <c r="A242" s="18"/>
       <c r="B242" s="23"/>
       <c r="C242" s="16"/>
@@ -9142,7 +9143,7 @@
       <c r="Y242" s="18"/>
       <c r="Z242" s="18"/>
     </row>
-    <row r="243" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:26" ht="12.75">
       <c r="A243" s="18"/>
       <c r="B243" s="23"/>
       <c r="C243" s="16"/>
@@ -9170,7 +9171,7 @@
       <c r="Y243" s="18"/>
       <c r="Z243" s="18"/>
     </row>
-    <row r="244" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:26" ht="12.75">
       <c r="A244" s="18"/>
       <c r="B244" s="23"/>
       <c r="C244" s="16"/>
@@ -9198,7 +9199,7 @@
       <c r="Y244" s="18"/>
       <c r="Z244" s="18"/>
     </row>
-    <row r="245" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:26" ht="12.75">
       <c r="A245" s="18"/>
       <c r="B245" s="18"/>
       <c r="C245" s="16"/>
@@ -9226,7 +9227,7 @@
       <c r="Y245" s="18"/>
       <c r="Z245" s="18"/>
     </row>
-    <row r="246" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:26" ht="12.75">
       <c r="A246" s="18"/>
       <c r="B246" s="17"/>
       <c r="C246" s="16"/>
@@ -9254,7 +9255,7 @@
       <c r="Y246" s="18"/>
       <c r="Z246" s="18"/>
     </row>
-    <row r="247" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:26" ht="12.75">
       <c r="A247" s="18"/>
       <c r="B247" s="17"/>
       <c r="C247" s="16"/>
@@ -9282,7 +9283,7 @@
       <c r="Y247" s="18"/>
       <c r="Z247" s="18"/>
     </row>
-    <row r="248" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:26" ht="12.75">
       <c r="A248" s="18"/>
       <c r="B248" s="17"/>
       <c r="C248" s="16"/>
@@ -9310,7 +9311,7 @@
       <c r="Y248" s="18"/>
       <c r="Z248" s="18"/>
     </row>
-    <row r="249" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:26" ht="12.75">
       <c r="A249" s="18"/>
       <c r="B249" s="17"/>
       <c r="C249" s="16"/>
@@ -9338,7 +9339,7 @@
       <c r="Y249" s="18"/>
       <c r="Z249" s="18"/>
     </row>
-    <row r="250" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:26" ht="12.75">
       <c r="A250" s="18"/>
       <c r="B250" s="17"/>
       <c r="C250" s="16"/>
@@ -9366,7 +9367,7 @@
       <c r="Y250" s="18"/>
       <c r="Z250" s="18"/>
     </row>
-    <row r="251" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:26" ht="12.75">
       <c r="A251" s="18"/>
       <c r="B251" s="17"/>
       <c r="C251" s="16"/>
@@ -9394,7 +9395,7 @@
       <c r="Y251" s="18"/>
       <c r="Z251" s="18"/>
     </row>
-    <row r="252" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:26" ht="12.75">
       <c r="A252" s="18"/>
       <c r="B252" s="18"/>
       <c r="C252" s="16"/>
@@ -9422,7 +9423,7 @@
       <c r="Y252" s="18"/>
       <c r="Z252" s="18"/>
     </row>
-    <row r="253" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:26" ht="12.75">
       <c r="A253" s="17"/>
       <c r="B253" s="17"/>
       <c r="C253" s="16"/>
@@ -9450,7 +9451,7 @@
       <c r="Y253" s="18"/>
       <c r="Z253" s="18"/>
     </row>
-    <row r="254" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:26" ht="12.75">
       <c r="A254" s="17"/>
       <c r="B254" s="17"/>
       <c r="C254" s="16"/>
@@ -9478,7 +9479,7 @@
       <c r="Y254" s="18"/>
       <c r="Z254" s="18"/>
     </row>
-    <row r="255" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:26" ht="12.75">
       <c r="A255" s="18"/>
       <c r="B255" s="17"/>
       <c r="C255" s="16"/>
@@ -9506,7 +9507,7 @@
       <c r="Y255" s="18"/>
       <c r="Z255" s="18"/>
     </row>
-    <row r="256" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:26" ht="12.75">
       <c r="A256" s="17"/>
       <c r="B256" s="17"/>
       <c r="C256" s="16"/>
@@ -9534,7 +9535,7 @@
       <c r="Y256" s="18"/>
       <c r="Z256" s="18"/>
     </row>
-    <row r="257" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:26" ht="12.75">
       <c r="A257" s="18"/>
       <c r="B257" s="17"/>
       <c r="C257" s="16"/>
@@ -9562,7 +9563,7 @@
       <c r="Y257" s="18"/>
       <c r="Z257" s="18"/>
     </row>
-    <row r="258" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:26" ht="12.75">
       <c r="A258" s="18"/>
       <c r="B258" s="17"/>
       <c r="C258" s="16"/>
@@ -9590,7 +9591,7 @@
       <c r="Y258" s="18"/>
       <c r="Z258" s="18"/>
     </row>
-    <row r="259" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:26" ht="12.75">
       <c r="A259" s="18"/>
       <c r="B259" s="17"/>
       <c r="C259" s="16"/>
@@ -9618,7 +9619,7 @@
       <c r="Y259" s="18"/>
       <c r="Z259" s="18"/>
     </row>
-    <row r="260" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:26" ht="12.75">
       <c r="A260" s="17"/>
       <c r="B260" s="17"/>
       <c r="C260" s="16"/>
@@ -9646,7 +9647,7 @@
       <c r="Y260" s="18"/>
       <c r="Z260" s="18"/>
     </row>
-    <row r="261" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:26" ht="12.75">
       <c r="A261" s="18"/>
       <c r="B261" s="17"/>
       <c r="C261" s="16"/>
@@ -9674,7 +9675,7 @@
       <c r="Y261" s="18"/>
       <c r="Z261" s="18"/>
     </row>
-    <row r="262" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:26" ht="12.75">
       <c r="A262" s="18"/>
       <c r="B262" s="17"/>
       <c r="C262" s="16"/>
@@ -9702,7 +9703,7 @@
       <c r="Y262" s="18"/>
       <c r="Z262" s="18"/>
     </row>
-    <row r="263" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:26" ht="12.75">
       <c r="A263" s="18"/>
       <c r="B263" s="17"/>
       <c r="C263" s="16"/>
@@ -9730,7 +9731,7 @@
       <c r="Y263" s="18"/>
       <c r="Z263" s="18"/>
     </row>
-    <row r="264" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:26" ht="12.75">
       <c r="A264" s="18"/>
       <c r="B264" s="17"/>
       <c r="C264" s="16"/>
@@ -9758,7 +9759,7 @@
       <c r="Y264" s="18"/>
       <c r="Z264" s="18"/>
     </row>
-    <row r="265" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:26" ht="12.75">
       <c r="A265" s="18"/>
       <c r="B265" s="17"/>
       <c r="C265" s="16"/>
@@ -9786,7 +9787,7 @@
       <c r="Y265" s="18"/>
       <c r="Z265" s="18"/>
     </row>
-    <row r="266" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:26" ht="12.75">
       <c r="A266" s="18"/>
       <c r="B266" s="17"/>
       <c r="C266" s="16"/>
@@ -9814,7 +9815,7 @@
       <c r="Y266" s="18"/>
       <c r="Z266" s="18"/>
     </row>
-    <row r="267" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:26" ht="12.75">
       <c r="A267" s="18"/>
       <c r="B267" s="17"/>
       <c r="C267" s="16"/>
@@ -9842,7 +9843,7 @@
       <c r="Y267" s="18"/>
       <c r="Z267" s="18"/>
     </row>
-    <row r="268" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:26" ht="12.75">
       <c r="A268" s="18"/>
       <c r="B268" s="17"/>
       <c r="C268" s="16"/>
@@ -9870,7 +9871,7 @@
       <c r="Y268" s="18"/>
       <c r="Z268" s="18"/>
     </row>
-    <row r="269" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:26" ht="12.75">
       <c r="A269" s="18"/>
       <c r="B269" s="17"/>
       <c r="C269" s="16"/>
@@ -9898,7 +9899,7 @@
       <c r="Y269" s="18"/>
       <c r="Z269" s="18"/>
     </row>
-    <row r="270" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:26" ht="12.75">
       <c r="A270" s="18"/>
       <c r="B270" s="17"/>
       <c r="C270" s="16"/>
@@ -9926,7 +9927,7 @@
       <c r="Y270" s="18"/>
       <c r="Z270" s="18"/>
     </row>
-    <row r="271" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:26" ht="12.75">
       <c r="A271" s="18"/>
       <c r="B271" s="17"/>
       <c r="C271" s="16"/>
@@ -9954,7 +9955,7 @@
       <c r="Y271" s="18"/>
       <c r="Z271" s="18"/>
     </row>
-    <row r="272" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:26" ht="12.75">
       <c r="A272" s="18"/>
       <c r="B272" s="17"/>
       <c r="C272" s="16"/>
@@ -9982,7 +9983,7 @@
       <c r="Y272" s="18"/>
       <c r="Z272" s="18"/>
     </row>
-    <row r="273" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:26" ht="12.75">
       <c r="A273" s="18"/>
       <c r="B273" s="17"/>
       <c r="C273" s="16"/>
@@ -10010,7 +10011,7 @@
       <c r="Y273" s="18"/>
       <c r="Z273" s="18"/>
     </row>
-    <row r="274" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:26" ht="12.75">
       <c r="A274" s="18"/>
       <c r="B274" s="18"/>
       <c r="C274" s="16"/>
@@ -10038,7 +10039,7 @@
       <c r="Y274" s="18"/>
       <c r="Z274" s="18"/>
     </row>
-    <row r="275" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:26" ht="12.75">
       <c r="A275" s="17"/>
       <c r="B275" s="18"/>
       <c r="C275" s="16"/>
@@ -10066,7 +10067,7 @@
       <c r="Y275" s="18"/>
       <c r="Z275" s="18"/>
     </row>
-    <row r="276" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:26" ht="12.75">
       <c r="A276" s="17"/>
       <c r="B276" s="18"/>
       <c r="C276" s="16"/>
@@ -10094,7 +10095,7 @@
       <c r="Y276" s="18"/>
       <c r="Z276" s="18"/>
     </row>
-    <row r="277" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:26" ht="12.75">
       <c r="A277" s="17"/>
       <c r="B277" s="18"/>
       <c r="C277" s="16"/>
@@ -10122,7 +10123,7 @@
       <c r="Y277" s="18"/>
       <c r="Z277" s="18"/>
     </row>
-    <row r="278" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:26" ht="12.75">
       <c r="A278" s="17"/>
       <c r="B278" s="18"/>
       <c r="C278" s="16"/>
@@ -10150,7 +10151,7 @@
       <c r="Y278" s="18"/>
       <c r="Z278" s="18"/>
     </row>
-    <row r="279" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:26" ht="12.75">
       <c r="A279" s="17"/>
       <c r="B279" s="18"/>
       <c r="C279" s="16"/>
@@ -10178,7 +10179,7 @@
       <c r="Y279" s="18"/>
       <c r="Z279" s="18"/>
     </row>
-    <row r="280" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:26" ht="12.75">
       <c r="A280" s="17"/>
       <c r="B280" s="18"/>
       <c r="C280" s="16"/>
@@ -10206,7 +10207,7 @@
       <c r="Y280" s="18"/>
       <c r="Z280" s="18"/>
     </row>
-    <row r="281" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:26" ht="12.75">
       <c r="A281" s="17"/>
       <c r="B281" s="18"/>
       <c r="C281" s="16"/>
@@ -10234,7 +10235,7 @@
       <c r="Y281" s="18"/>
       <c r="Z281" s="18"/>
     </row>
-    <row r="282" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:26" ht="12.75">
       <c r="A282" s="17"/>
       <c r="B282" s="18"/>
       <c r="C282" s="16"/>
@@ -10262,7 +10263,7 @@
       <c r="Y282" s="18"/>
       <c r="Z282" s="18"/>
     </row>
-    <row r="283" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:26" ht="12.75">
       <c r="A283" s="17"/>
       <c r="B283" s="18"/>
       <c r="C283" s="16"/>
@@ -10290,7 +10291,7 @@
       <c r="Y283" s="18"/>
       <c r="Z283" s="18"/>
     </row>
-    <row r="284" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:26" ht="12.75">
       <c r="A284" s="17"/>
       <c r="B284" s="18"/>
       <c r="C284" s="16"/>
@@ -10318,7 +10319,7 @@
       <c r="Y284" s="18"/>
       <c r="Z284" s="18"/>
     </row>
-    <row r="285" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:26" ht="12.75">
       <c r="A285" s="17"/>
       <c r="B285" s="18"/>
       <c r="C285" s="16"/>
@@ -10346,7 +10347,7 @@
       <c r="Y285" s="18"/>
       <c r="Z285" s="18"/>
     </row>
-    <row r="286" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:26" ht="12.75">
       <c r="A286" s="17"/>
       <c r="B286" s="18"/>
       <c r="C286" s="16"/>
@@ -10374,7 +10375,7 @@
       <c r="Y286" s="18"/>
       <c r="Z286" s="18"/>
     </row>
-    <row r="287" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:26" ht="12.75">
       <c r="A287" s="18"/>
       <c r="B287" s="18"/>
       <c r="C287" s="16"/>
@@ -10402,7 +10403,7 @@
       <c r="Y287" s="18"/>
       <c r="Z287" s="18"/>
     </row>
-    <row r="288" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:26" ht="12.75">
       <c r="A288" s="18"/>
       <c r="B288" s="18"/>
       <c r="C288" s="16"/>
@@ -10430,7 +10431,7 @@
       <c r="Y288" s="18"/>
       <c r="Z288" s="18"/>
     </row>
-    <row r="289" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:26" ht="12.75">
       <c r="A289" s="18"/>
       <c r="B289" s="18"/>
       <c r="C289" s="16"/>
@@ -10458,7 +10459,7 @@
       <c r="Y289" s="18"/>
       <c r="Z289" s="18"/>
     </row>
-    <row r="290" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:26" ht="12.75">
       <c r="A290" s="18"/>
       <c r="B290" s="18"/>
       <c r="C290" s="16"/>
@@ -10486,7 +10487,7 @@
       <c r="Y290" s="18"/>
       <c r="Z290" s="18"/>
     </row>
-    <row r="291" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:26" ht="12.75">
       <c r="A291" s="17"/>
       <c r="B291" s="18"/>
       <c r="C291" s="16"/>
@@ -10514,7 +10515,7 @@
       <c r="Y291" s="18"/>
       <c r="Z291" s="18"/>
     </row>
-    <row r="292" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:26" ht="12.75">
       <c r="A292" s="18"/>
       <c r="B292" s="18"/>
       <c r="C292" s="16"/>
@@ -10542,7 +10543,7 @@
       <c r="Y292" s="18"/>
       <c r="Z292" s="18"/>
     </row>
-    <row r="293" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:26" ht="12.75">
       <c r="A293" s="18"/>
       <c r="B293" s="18"/>
       <c r="C293" s="16"/>
@@ -10570,7 +10571,7 @@
       <c r="Y293" s="18"/>
       <c r="Z293" s="18"/>
     </row>
-    <row r="294" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:26" ht="12.75">
       <c r="A294" s="18"/>
       <c r="B294" s="18"/>
       <c r="C294" s="16"/>
@@ -10598,7 +10599,7 @@
       <c r="Y294" s="18"/>
       <c r="Z294" s="18"/>
     </row>
-    <row r="295" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:26" ht="12.75">
       <c r="A295" s="18"/>
       <c r="B295" s="18"/>
       <c r="C295" s="16"/>
@@ -10626,7 +10627,7 @@
       <c r="Y295" s="18"/>
       <c r="Z295" s="18"/>
     </row>
-    <row r="296" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:26" ht="12.75">
       <c r="A296" s="18"/>
       <c r="B296" s="18"/>
       <c r="C296" s="16"/>
@@ -10654,7 +10655,7 @@
       <c r="Y296" s="18"/>
       <c r="Z296" s="18"/>
     </row>
-    <row r="297" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:26" ht="12.75">
       <c r="A297" s="18"/>
       <c r="B297" s="18"/>
       <c r="C297" s="16"/>
@@ -10682,7 +10683,7 @@
       <c r="Y297" s="18"/>
       <c r="Z297" s="18"/>
     </row>
-    <row r="298" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:26" ht="12.75">
       <c r="A298" s="17"/>
       <c r="B298" s="18"/>
       <c r="C298" s="16"/>
@@ -10710,7 +10711,7 @@
       <c r="Y298" s="18"/>
       <c r="Z298" s="18"/>
     </row>
-    <row r="299" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:26" ht="12.75">
       <c r="A299" s="17"/>
       <c r="B299" s="18"/>
       <c r="C299" s="16"/>
@@ -10738,7 +10739,7 @@
       <c r="Y299" s="18"/>
       <c r="Z299" s="18"/>
     </row>
-    <row r="300" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:26" ht="12.75">
       <c r="A300" s="17"/>
       <c r="B300" s="18"/>
       <c r="C300" s="16"/>
@@ -10766,7 +10767,7 @@
       <c r="Y300" s="18"/>
       <c r="Z300" s="18"/>
     </row>
-    <row r="301" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:26" ht="12.75">
       <c r="A301" s="17"/>
       <c r="B301" s="18"/>
       <c r="C301" s="16"/>
@@ -10794,7 +10795,7 @@
       <c r="Y301" s="18"/>
       <c r="Z301" s="18"/>
     </row>
-    <row r="302" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:26" ht="12.75">
       <c r="A302" s="17"/>
       <c r="B302" s="18"/>
       <c r="C302" s="16"/>
@@ -10822,7 +10823,7 @@
       <c r="Y302" s="18"/>
       <c r="Z302" s="18"/>
     </row>
-    <row r="303" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:26" ht="12.75">
       <c r="A303" s="17"/>
       <c r="B303" s="18"/>
       <c r="C303" s="16"/>
@@ -10850,7 +10851,7 @@
       <c r="Y303" s="18"/>
       <c r="Z303" s="18"/>
     </row>
-    <row r="304" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:26" ht="12.75">
       <c r="A304" s="17"/>
       <c r="B304" s="18"/>
       <c r="C304" s="16"/>
@@ -10878,7 +10879,7 @@
       <c r="Y304" s="18"/>
       <c r="Z304" s="18"/>
     </row>
-    <row r="305" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:26" ht="12.75">
       <c r="A305" s="18"/>
       <c r="B305" s="18"/>
       <c r="C305" s="16"/>
@@ -10906,7 +10907,7 @@
       <c r="Y305" s="18"/>
       <c r="Z305" s="18"/>
     </row>
-    <row r="306" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:26" ht="12.75">
       <c r="A306" s="17"/>
       <c r="B306" s="18"/>
       <c r="C306" s="16"/>
@@ -10941,14 +10942,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AL77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="24" width="9.28515625" style="68" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="9.28515625" style="63" bestFit="1" customWidth="1"/>
@@ -10957,7 +10958,7 @@
     <col min="39" max="16384" width="8.85546875" style="68"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38" ht="15">
       <c r="A1" s="70">
         <v>7.358E-3</v>
       </c>
@@ -11073,7 +11074,7 @@
         <v>-7.1050000000000002E-3</v>
       </c>
     </row>
-    <row r="2" spans="1:38" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:38" ht="15">
       <c r="A2" s="70">
         <v>7.404E-3</v>
       </c>
@@ -11189,7 +11190,7 @@
         <v>-5.6490000000000004E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:38" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:38" ht="15">
       <c r="A3" s="70">
         <v>5.6820000000000004E-3</v>
       </c>
@@ -11305,7 +11306,7 @@
         <v>-6.5180000000000004E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:38" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:38" ht="15">
       <c r="A4" s="70">
         <v>8.0780000000000001E-3</v>
       </c>
@@ -11421,7 +11422,7 @@
         <v>-7.1710000000000003E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:38" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:38" ht="15">
       <c r="A5" s="70">
         <v>8.9680000000000003E-3</v>
       </c>
@@ -11537,7 +11538,7 @@
         <v>-6.1830000000000001E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:38" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:38" ht="15">
       <c r="A6" s="70">
         <v>9.7219999999999997E-3</v>
       </c>
@@ -11653,7 +11654,7 @@
         <v>-6.548E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:38" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:38" ht="15">
       <c r="A7" s="70">
         <v>1.1767E-2</v>
       </c>
@@ -11769,7 +11770,7 @@
         <v>-6.3959999999999998E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:38" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:38" ht="15">
       <c r="A8" s="70">
         <v>1.2940999999999999E-2</v>
       </c>
@@ -11885,7 +11886,7 @@
         <v>-5.7689999999999998E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:38" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:38" ht="15">
       <c r="A9" s="70">
         <v>1.6166E-2</v>
       </c>
@@ -12001,7 +12002,7 @@
         <v>-5.3330000000000001E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:38" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:38" ht="15">
       <c r="A10" s="70">
         <v>1.8023999999999998E-2</v>
       </c>
@@ -12117,7 +12118,7 @@
         <v>-4.2859999999999999E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:38" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:38" ht="15">
       <c r="A11" s="70">
         <v>1.8478999999999999E-2</v>
       </c>
@@ -12233,7 +12234,7 @@
         <v>-3.761E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:38" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:38" ht="15">
       <c r="A12" s="70">
         <v>2.1409999999999998E-2</v>
       </c>
@@ -12349,7 +12350,7 @@
         <v>-3.349E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:38" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:38" ht="15">
       <c r="A13" s="70">
         <v>2.1825000000000001E-2</v>
       </c>
@@ -12465,7 +12466,7 @@
         <v>-2.8089999999999999E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:38" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:38" ht="15">
       <c r="A14" s="70">
         <v>2.2554999999999999E-2</v>
       </c>
@@ -12581,7 +12582,7 @@
         <v>-2.2550000000000001E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:38" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:38" ht="15">
       <c r="A15" s="70">
         <v>2.4722000000000001E-2</v>
       </c>
@@ -12697,7 +12698,7 @@
         <v>-2.5469999999999998E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:38" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:38" ht="15">
       <c r="A16" s="70">
         <v>2.4641E-2</v>
       </c>
@@ -12813,7 +12814,7 @@
         <v>-2.434E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:38" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:38" ht="15">
       <c r="A17" s="70">
         <v>2.562E-2</v>
       </c>
@@ -12929,7 +12930,7 @@
         <v>-2.833E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:38" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:38" ht="15">
       <c r="A18" s="70">
         <v>2.6818999999999999E-2</v>
       </c>
@@ -13045,7 +13046,7 @@
         <v>-3.1870000000000002E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:38" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:38" ht="15">
       <c r="A19" s="70">
         <v>2.6023000000000001E-2</v>
       </c>
@@ -13161,7 +13162,7 @@
         <v>-3.4290000000000002E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:38" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:38" ht="15">
       <c r="A20" s="70">
         <v>2.7292E-2</v>
       </c>
@@ -13277,7 +13278,7 @@
         <v>-4.2440000000000004E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:38" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:38" ht="15">
       <c r="A21" s="70">
         <v>2.6422000000000001E-2</v>
       </c>
@@ -13393,7 +13394,7 @@
         <v>-4.6160000000000003E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:38" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:38" ht="15">
       <c r="A22" s="70">
         <v>2.5729999999999999E-2</v>
       </c>
@@ -13509,7 +13510,7 @@
         <v>-5.2449999999999997E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:38" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:38" ht="15">
       <c r="A23" s="70">
         <v>2.6251E-2</v>
       </c>
@@ -13625,7 +13626,7 @@
         <v>-6.0800000000000003E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:38" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:38" ht="15">
       <c r="A24" s="70">
         <v>2.5346E-2</v>
       </c>
@@ -13741,7 +13742,7 @@
         <v>-6.4029999999999998E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:38" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:38" ht="15">
       <c r="A25" s="70">
         <v>2.5638999999999999E-2</v>
       </c>
@@ -13857,7 +13858,7 @@
         <v>-6.8710000000000004E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:38" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:38" ht="15">
       <c r="A26" s="70">
         <v>2.5784999999999999E-2</v>
       </c>
@@ -13973,7 +13974,7 @@
         <v>-7.4539999999999997E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:38" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:38" ht="15">
       <c r="A27" s="70">
         <v>2.4926E-2</v>
       </c>
@@ -14089,7 +14090,7 @@
         <v>-7.6210000000000002E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:38" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:38" ht="15">
       <c r="A28" s="70">
         <v>2.5516E-2</v>
       </c>
@@ -14205,7 +14206,7 @@
         <v>-8.005E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:38" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:38" ht="15">
       <c r="A29" s="70">
         <v>2.5902000000000001E-2</v>
       </c>
@@ -14321,7 +14322,7 @@
         <v>-8.2950000000000003E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:38" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:38" ht="15">
       <c r="A30" s="70">
         <v>2.5803E-2</v>
       </c>
@@ -14437,7 +14438,7 @@
         <v>-8.4530000000000004E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:38" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:38" ht="15">
       <c r="A31" s="70">
         <v>2.6799E-2</v>
       </c>
@@ -14553,7 +14554,7 @@
         <v>-8.6979999999999991E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:38" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:38" ht="15">
       <c r="A32" s="70">
         <v>2.6380000000000001E-2</v>
       </c>
@@ -14669,7 +14670,7 @@
         <v>-8.6510000000000007E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:38" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:38" ht="15">
       <c r="A33" s="70">
         <v>2.6606000000000001E-2</v>
       </c>
@@ -14785,7 +14786,7 @@
         <v>-8.5389999999999997E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:38" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:38" ht="15">
       <c r="A34" s="70">
         <v>2.7043000000000001E-2</v>
       </c>
@@ -14901,7 +14902,7 @@
         <v>-8.5570000000000004E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:38" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:38" ht="15">
       <c r="A35" s="70">
         <v>2.6568999999999999E-2</v>
       </c>
@@ -15017,7 +15018,7 @@
         <v>-8.0999999999999996E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:38" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:38" ht="15">
       <c r="A36" s="70">
         <v>2.7039000000000001E-2</v>
       </c>
@@ -15133,7 +15134,7 @@
         <v>-7.9450000000000007E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:38" ht="15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:38" ht="15">
       <c r="A37" s="70">
         <v>2.7380999999999999E-2</v>
       </c>
@@ -15249,7 +15250,7 @@
         <v>-7.561E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:38" ht="15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:38" ht="15">
       <c r="A38" s="70">
         <v>2.7157000000000001E-2</v>
       </c>
@@ -15365,7 +15366,7 @@
         <v>-7.182E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:38" ht="15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:38" ht="15">
       <c r="A39" s="70">
         <v>2.7709999999999999E-2</v>
       </c>
@@ -15481,7 +15482,7 @@
         <v>-6.8929999999999998E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:38" ht="15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:38" ht="15">
       <c r="A40" s="70">
         <v>2.7871E-2</v>
       </c>
@@ -15597,7 +15598,7 @@
         <v>-6.6639999999999998E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:38" ht="15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:38" ht="15">
       <c r="A41" s="70">
         <v>2.7992E-2</v>
       </c>
@@ -15713,7 +15714,7 @@
         <v>-6.411E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:38" ht="15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:38" ht="15">
       <c r="A42" s="70">
         <v>2.8278999999999999E-2</v>
       </c>
@@ -15829,7 +15830,7 @@
         <v>-6.2469999999999999E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:38" ht="15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:38" ht="15">
       <c r="A43" s="70">
         <v>2.8188000000000001E-2</v>
       </c>
@@ -15945,7 +15946,7 @@
         <v>-6.1380000000000002E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:38" ht="15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:38" ht="15">
       <c r="A44" s="70">
         <v>2.9090000000000001E-2</v>
       </c>
@@ -16061,7 +16062,7 @@
         <v>-2.9150000000000001E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:38" ht="15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:38" ht="15">
       <c r="A45" s="70">
         <v>2.8881E-2</v>
       </c>
@@ -16177,7 +16178,7 @@
         <v>-2.9199999999999999E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:38" ht="15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:38" ht="15">
       <c r="A46" s="70">
         <v>2.8615000000000002E-2</v>
       </c>
@@ -16293,7 +16294,7 @@
         <v>-3.2230000000000002E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:38" ht="15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:38" ht="15">
       <c r="A47" s="70">
         <v>2.8701999999999998E-2</v>
       </c>
@@ -16409,7 +16410,7 @@
         <v>-3.4259999999999998E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:38" ht="15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:38" ht="15">
       <c r="A48" s="70">
         <v>2.8563999999999999E-2</v>
       </c>
@@ -16525,7 +16526,7 @@
         <v>-3.6359999999999999E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:38" ht="15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:38" ht="15">
       <c r="A49" s="70">
         <v>2.8788000000000001E-2</v>
       </c>
@@ -16641,7 +16642,7 @@
         <v>-3.888E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:38" ht="15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:38" ht="15">
       <c r="A50" s="70">
         <v>2.8827999999999999E-2</v>
       </c>
@@ -16757,7 +16758,7 @@
         <v>-4.0010000000000002E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:38" ht="15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:38" ht="15">
       <c r="A51" s="70">
         <v>2.8898E-2</v>
       </c>
@@ -16873,7 +16874,7 @@
         <v>-4.3769999999999998E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:38" ht="15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:38" ht="15">
       <c r="A52" s="70">
         <v>2.8958000000000001E-2</v>
       </c>
@@ -16989,7 +16990,7 @@
         <v>-4.5059999999999996E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:38" ht="15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:38" ht="15">
       <c r="A53" s="70">
         <v>2.9177000000000002E-2</v>
       </c>
@@ -17105,7 +17106,7 @@
         <v>-4.6030000000000003E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:38" ht="15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:38" ht="15">
       <c r="A54" s="70">
         <v>2.9278999999999999E-2</v>
       </c>
@@ -17221,7 +17222,7 @@
         <v>-4.9370000000000004E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:38" ht="15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:38" ht="15">
       <c r="A55" s="70">
         <v>2.9440000000000001E-2</v>
       </c>
@@ -17337,7 +17338,7 @@
         <v>-4.8799999999999998E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:38" ht="15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:38" ht="15">
       <c r="A56" s="70">
         <v>2.9582000000000001E-2</v>
       </c>
@@ -17453,7 +17454,7 @@
         <v>-5.0590000000000001E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:38" ht="15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:38" ht="15">
       <c r="A57" s="70">
         <v>2.9672E-2</v>
       </c>
@@ -17569,7 +17570,7 @@
         <v>-5.1330000000000004E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:38" ht="15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:38" ht="15">
       <c r="A58" s="70">
         <v>2.9555000000000001E-2</v>
       </c>
@@ -17685,7 +17686,7 @@
         <v>-5.1619999999999999E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:38" ht="15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:38" ht="15">
       <c r="A59" s="70">
         <v>2.9676000000000001E-2</v>
       </c>
@@ -17801,7 +17802,7 @@
         <v>-5.3790000000000001E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:38" ht="15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:38" ht="15">
       <c r="A60" s="70">
         <v>2.9596000000000001E-2</v>
       </c>
@@ -17917,7 +17918,7 @@
         <v>-5.2570000000000004E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:38" ht="15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:38" ht="15">
       <c r="A61" s="70">
         <v>2.9685E-2</v>
       </c>
@@ -18033,7 +18034,7 @@
         <v>-5.3639999999999998E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:38" ht="15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:38" ht="15">
       <c r="A62" s="70">
         <v>2.9866E-2</v>
       </c>
@@ -18149,7 +18150,7 @@
         <v>-5.5019999999999999E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:38" ht="15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:38" ht="15">
       <c r="A63" s="70">
         <v>2.9398000000000001E-2</v>
       </c>
@@ -18265,7 +18266,7 @@
         <v>-5.3330000000000001E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:38" ht="15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:38" ht="15">
       <c r="A64" s="70">
         <v>2.9915000000000001E-2</v>
       </c>
@@ -18381,7 +18382,7 @@
         <v>-5.4460000000000003E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:38" ht="15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:38" ht="15">
       <c r="A65" s="70">
         <v>2.9817E-2</v>
       </c>
@@ -18497,7 +18498,7 @@
         <v>-5.5399999999999998E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:38" ht="15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:38" ht="15">
       <c r="A66" s="70">
         <v>2.9586000000000001E-2</v>
       </c>
@@ -18613,7 +18614,7 @@
         <v>-5.3689999999999996E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:38" ht="15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:38" ht="15">
       <c r="A67" s="70">
         <v>3.0622E-2</v>
       </c>
@@ -18729,7 +18730,7 @@
         <v>-5.7910000000000001E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:38" ht="15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:38" ht="15">
       <c r="A68" s="70">
         <v>2.9946E-2</v>
       </c>
@@ -18845,7 +18846,7 @@
         <v>-5.646E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:38" ht="15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:38" ht="15">
       <c r="A69" s="70">
         <v>3.0578000000000001E-2</v>
       </c>
@@ -18961,7 +18962,7 @@
         <v>-5.5040000000000002E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:38" ht="15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:38" ht="15">
       <c r="A70" s="70">
         <v>3.0962E-2</v>
       </c>
@@ -19077,7 +19078,7 @@
         <v>-5.9280000000000001E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:38" ht="15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:38" ht="15">
       <c r="A71" s="70">
         <v>2.9881000000000001E-2</v>
       </c>
@@ -19193,7 +19194,7 @@
         <v>-5.4599999999999996E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:38" ht="15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:38" ht="15">
       <c r="A72" s="70">
         <v>3.0488000000000001E-2</v>
       </c>
@@ -19309,7 +19310,7 @@
         <v>-5.4549999999999998E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:38" ht="15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:38" ht="15">
       <c r="A73" s="70">
         <v>3.0173999999999999E-2</v>
       </c>
@@ -19425,7 +19426,7 @@
         <v>-5.8279999999999998E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:38" ht="15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:38" ht="15">
       <c r="A74" s="70">
         <v>2.8754999999999999E-2</v>
       </c>
@@ -19541,7 +19542,7 @@
         <v>-5.4469999999999996E-3</v>
       </c>
     </row>
-    <row r="75" spans="1:38" ht="15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:38" ht="15">
       <c r="A75" s="70">
         <v>2.9916999999999999E-2</v>
       </c>
@@ -19657,7 +19658,7 @@
         <v>-6.058E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:38" ht="15" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:38" ht="15">
       <c r="A76" s="70">
         <v>2.9770999999999999E-2</v>
       </c>
@@ -19773,7 +19774,7 @@
         <v>-6.6299999999999996E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:38" ht="15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:38" ht="15">
       <c r="A77" s="70">
         <v>2.5543E-2</v>
       </c>
@@ -19895,14 +19896,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AL77"/>
   <sheetViews>
     <sheetView topLeftCell="L1" workbookViewId="0">
       <selection activeCell="L1" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="24" width="10.28515625" style="68" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="10.28515625" style="65" bestFit="1" customWidth="1"/>
@@ -19911,7 +19912,7 @@
     <col min="39" max="16384" width="8.85546875" style="68"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38" ht="15">
       <c r="A1" s="70">
         <v>-0.134574</v>
       </c>
@@ -20027,7 +20028,7 @@
         <v>7.1953000000000003E-2</v>
       </c>
     </row>
-    <row r="2" spans="1:38" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:38" ht="15">
       <c r="A2" s="70">
         <v>-0.12786700000000001</v>
       </c>
@@ -20143,7 +20144,7 @@
         <v>6.5319000000000002E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:38" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:38" ht="15">
       <c r="A3" s="70">
         <v>-0.11200400000000001</v>
       </c>
@@ -20259,7 +20260,7 @@
         <v>5.5763E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:38" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:38" ht="15">
       <c r="A4" s="70">
         <v>-9.6365000000000006E-2</v>
       </c>
@@ -20375,7 +20376,7 @@
         <v>4.7398000000000003E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:38" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:38" ht="15">
       <c r="A5" s="70">
         <v>-8.3115999999999995E-2</v>
       </c>
@@ -20491,7 +20492,7 @@
         <v>3.8699999999999998E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:38" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:38" ht="15">
       <c r="A6" s="70">
         <v>-6.8897E-2</v>
       </c>
@@ -20607,7 +20608,7 @@
         <v>3.1438000000000001E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:38" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:38" ht="15">
       <c r="A7" s="70">
         <v>-5.8596000000000002E-2</v>
       </c>
@@ -20723,7 +20724,7 @@
         <v>2.5684999999999999E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:38" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:38" ht="15">
       <c r="A8" s="70">
         <v>-4.8517999999999999E-2</v>
       </c>
@@ -20839,7 +20840,7 @@
         <v>2.1596000000000001E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:38" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:38" ht="15">
       <c r="A9" s="70">
         <v>-4.3756000000000003E-2</v>
       </c>
@@ -20955,7 +20956,7 @@
         <v>1.8321E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:38" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:38" ht="15">
       <c r="A10" s="70">
         <v>-3.5202999999999998E-2</v>
       </c>
@@ -21071,7 +21072,7 @@
         <v>1.6174999999999998E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:38" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:38" ht="15">
       <c r="A11" s="70">
         <v>-2.9912999999999999E-2</v>
       </c>
@@ -21187,7 +21188,7 @@
         <v>1.4345E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:38" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:38" ht="15">
       <c r="A12" s="70">
         <v>-2.6235999999999999E-2</v>
       </c>
@@ -21303,7 +21304,7 @@
         <v>1.3232000000000001E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:38" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:38" ht="15">
       <c r="A13" s="70">
         <v>-2.266E-2</v>
       </c>
@@ -21419,7 +21420,7 @@
         <v>1.2404999999999999E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:38" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:38" ht="15">
       <c r="A14" s="70">
         <v>-1.9377999999999999E-2</v>
       </c>
@@ -21535,7 +21536,7 @@
         <v>1.1403E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:38" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:38" ht="15">
       <c r="A15" s="70">
         <v>-1.7094000000000002E-2</v>
       </c>
@@ -21651,7 +21652,7 @@
         <v>1.0992E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:38" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:38" ht="15">
       <c r="A16" s="70">
         <v>-1.473E-2</v>
       </c>
@@ -21767,7 +21768,7 @@
         <v>1.0373E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:38" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:38" ht="15">
       <c r="A17" s="70">
         <v>-1.3070999999999999E-2</v>
       </c>
@@ -21883,7 +21884,7 @@
         <v>9.8469999999999999E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:38" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:38" ht="15">
       <c r="A18" s="70">
         <v>-1.0699E-2</v>
       </c>
@@ -21999,7 +22000,7 @@
         <v>9.1350000000000008E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:38" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:38" ht="15">
       <c r="A19" s="70">
         <v>-8.7550000000000006E-3</v>
       </c>
@@ -22115,7 +22116,7 @@
         <v>8.6189999999999999E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:38" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:38" ht="15">
       <c r="A20" s="70">
         <v>-7.045E-3</v>
       </c>
@@ -22231,7 +22232,7 @@
         <v>7.9649999999999999E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:38" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:38" ht="15">
       <c r="A21" s="70">
         <v>-5.8560000000000001E-3</v>
       </c>
@@ -22347,7 +22348,7 @@
         <v>7.522E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:38" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:38" ht="15">
       <c r="A22" s="70">
         <v>-4.5630000000000002E-3</v>
       </c>
@@ -22463,7 +22464,7 @@
         <v>7.0060000000000001E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:38" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:38" ht="15">
       <c r="A23" s="70">
         <v>-4.235E-3</v>
       </c>
@@ -22579,7 +22580,7 @@
         <v>6.6299999999999996E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:38" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:38" ht="15">
       <c r="A24" s="70">
         <v>-3.5639999999999999E-3</v>
       </c>
@@ -22695,7 +22696,7 @@
         <v>6.1619999999999999E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:38" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:38" ht="15">
       <c r="A25" s="70">
         <v>-3.2550000000000001E-3</v>
       </c>
@@ -22811,7 +22812,7 @@
         <v>5.8789999999999997E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:38" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:38" ht="15">
       <c r="A26" s="70">
         <v>-2.9819999999999998E-3</v>
       </c>
@@ -22927,7 +22928,7 @@
         <v>5.4869999999999997E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:38" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:38" ht="15">
       <c r="A27" s="70">
         <v>-2.5720000000000001E-3</v>
       </c>
@@ -23043,7 +23044,7 @@
         <v>5.2480000000000001E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:38" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:38" ht="15">
       <c r="A28" s="70">
         <v>-2.2750000000000001E-3</v>
       </c>
@@ -23159,7 +23160,7 @@
         <v>5.0020000000000004E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:38" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:38" ht="15">
       <c r="A29" s="70">
         <v>-2.0990000000000002E-3</v>
       </c>
@@ -23275,7 +23276,7 @@
         <v>4.829E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:38" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:38" ht="15">
       <c r="A30" s="70">
         <v>-1.297E-3</v>
       </c>
@@ -23391,7 +23392,7 @@
         <v>4.548E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:38" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:38" ht="15">
       <c r="A31" s="70">
         <v>-5.7799999999999995E-4</v>
       </c>
@@ -23507,7 +23508,7 @@
         <v>4.3210000000000002E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:38" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:38" ht="15">
       <c r="A32" s="70">
         <v>-5.1999999999999997E-5</v>
       </c>
@@ -23623,7 +23624,7 @@
         <v>4.1240000000000001E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:38" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:38" ht="15">
       <c r="A33" s="70">
         <v>4.55E-4</v>
       </c>
@@ -23739,7 +23740,7 @@
         <v>4.0130000000000001E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:38" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:38" ht="15">
       <c r="A34" s="70">
         <v>7.8399999999999997E-4</v>
       </c>
@@ -23855,7 +23856,7 @@
         <v>3.901E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:38" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:38" ht="15">
       <c r="A35" s="70">
         <v>1.3680000000000001E-3</v>
       </c>
@@ -23971,7 +23972,7 @@
         <v>3.803E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:38" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:38" ht="15">
       <c r="A36" s="70">
         <v>1.8259999999999999E-3</v>
       </c>
@@ -24087,7 +24088,7 @@
         <v>3.7360000000000002E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:38" ht="15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:38" ht="15">
       <c r="A37" s="70">
         <v>2.0839999999999999E-3</v>
       </c>
@@ -24203,7 +24204,7 @@
         <v>3.735E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:38" ht="15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:38" ht="15">
       <c r="A38" s="70">
         <v>2.1979999999999999E-3</v>
       </c>
@@ -24319,7 +24320,7 @@
         <v>3.8080000000000002E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:38" ht="15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:38" ht="15">
       <c r="A39" s="70">
         <v>1.939E-3</v>
       </c>
@@ -24435,7 +24436,7 @@
         <v>3.8839999999999999E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:38" ht="15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:38" ht="15">
       <c r="A40" s="70">
         <v>1.761E-3</v>
       </c>
@@ -24551,7 +24552,7 @@
         <v>3.8270000000000001E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:38" ht="15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:38" ht="15">
       <c r="A41" s="70">
         <v>1.9550000000000001E-3</v>
       </c>
@@ -24667,7 +24668,7 @@
         <v>3.8349999999999999E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:38" ht="15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:38" ht="15">
       <c r="A42" s="70">
         <v>1.9940000000000001E-3</v>
       </c>
@@ -24783,7 +24784,7 @@
         <v>3.6879999999999999E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:38" ht="15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:38" ht="15">
       <c r="A43" s="70">
         <v>2.0839999999999999E-3</v>
       </c>
@@ -24899,7 +24900,7 @@
         <v>3.5929999999999998E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:38" ht="15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:38" ht="15">
       <c r="A44" s="70">
         <v>1.4289999999999999E-3</v>
       </c>
@@ -25015,7 +25016,7 @@
         <v>4.6249999999999998E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:38" ht="15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:38" ht="15">
       <c r="A45" s="70">
         <v>1.428E-3</v>
       </c>
@@ -25131,7 +25132,7 @@
         <v>4.3620000000000004E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:38" ht="15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:38" ht="15">
       <c r="A46" s="70">
         <v>1.547E-3</v>
       </c>
@@ -25247,7 +25248,7 @@
         <v>4.1000000000000003E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:38" ht="15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:38" ht="15">
       <c r="A47" s="70">
         <v>1.7030000000000001E-3</v>
       </c>
@@ -25363,7 +25364,7 @@
         <v>3.8739999999999998E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:38" ht="15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:38" ht="15">
       <c r="A48" s="70">
         <v>1.908E-3</v>
       </c>
@@ -25479,7 +25480,7 @@
         <v>3.7569999999999999E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:38" ht="15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:38" ht="15">
       <c r="A49" s="70">
         <v>1.861E-3</v>
       </c>
@@ -25595,7 +25596,7 @@
         <v>3.5539999999999999E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:38" ht="15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:38" ht="15">
       <c r="A50" s="70">
         <v>1.7949999999999999E-3</v>
       </c>
@@ -25711,7 +25712,7 @@
         <v>3.3960000000000001E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:38" ht="15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:38" ht="15">
       <c r="A51" s="70">
         <v>1.8730000000000001E-3</v>
       </c>
@@ -25827,7 +25828,7 @@
         <v>3.3379999999999998E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:38" ht="15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:38" ht="15">
       <c r="A52" s="70">
         <v>1.7979999999999999E-3</v>
       </c>
@@ -25943,7 +25944,7 @@
         <v>3.1380000000000002E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:38" ht="15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:38" ht="15">
       <c r="A53" s="70">
         <v>1.7880000000000001E-3</v>
       </c>
@@ -26059,7 +26060,7 @@
         <v>3.1419999999999998E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:38" ht="15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:38" ht="15">
       <c r="A54" s="70">
         <v>1.8500000000000001E-3</v>
       </c>
@@ -26175,7 +26176,7 @@
         <v>3.0790000000000001E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:38" ht="15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:38" ht="15">
       <c r="A55" s="70">
         <v>1.854E-3</v>
       </c>
@@ -26291,7 +26292,7 @@
         <v>3.0279999999999999E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:38" ht="15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:38" ht="15">
       <c r="A56" s="70">
         <v>1.9419999999999999E-3</v>
       </c>
@@ -26407,7 +26408,7 @@
         <v>2.9889999999999999E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:38" ht="15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:38" ht="15">
       <c r="A57" s="70">
         <v>1.9719999999999998E-3</v>
       </c>
@@ -26523,7 +26524,7 @@
         <v>3.0209999999999998E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:38" ht="15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:38" ht="15">
       <c r="A58" s="70">
         <v>1.8370000000000001E-3</v>
       </c>
@@ -26639,7 +26640,7 @@
         <v>2.869E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:38" ht="15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:38" ht="15">
       <c r="A59" s="70">
         <v>2.1020000000000001E-3</v>
       </c>
@@ -26755,7 +26756,7 @@
         <v>2.9529999999999999E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:38" ht="15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:38" ht="15">
       <c r="A60" s="70">
         <v>2.0339999999999998E-3</v>
       </c>
@@ -26871,7 +26872,7 @@
         <v>2.9459999999999998E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:38" ht="15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:38" ht="15">
       <c r="A61" s="70">
         <v>2.235E-3</v>
       </c>
@@ -26987,7 +26988,7 @@
         <v>2.9659999999999999E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:38" ht="15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:38" ht="15">
       <c r="A62" s="70">
         <v>2.3440000000000002E-3</v>
       </c>
@@ -27103,7 +27104,7 @@
         <v>2.9299999999999999E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:38" ht="15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:38" ht="15">
       <c r="A63" s="70">
         <v>2.3609999999999998E-3</v>
       </c>
@@ -27219,7 +27220,7 @@
         <v>2.9510000000000001E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:38" ht="15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:38" ht="15">
       <c r="A64" s="70">
         <v>2.3040000000000001E-3</v>
       </c>
@@ -27335,7 +27336,7 @@
         <v>2.931E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:38" ht="15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:38" ht="15">
       <c r="A65" s="70">
         <v>2.398E-3</v>
       </c>
@@ -27451,7 +27452,7 @@
         <v>2.882E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:38" ht="15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:38" ht="15">
       <c r="A66" s="70">
         <v>2.4610000000000001E-3</v>
       </c>
@@ -27567,7 +27568,7 @@
         <v>2.8649999999999999E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:38" ht="15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:38" ht="15">
       <c r="A67" s="70">
         <v>2.4009999999999999E-3</v>
       </c>
@@ -27683,7 +27684,7 @@
         <v>2.7880000000000001E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:38" ht="15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:38" ht="15">
       <c r="A68" s="70">
         <v>2.7200000000000002E-3</v>
       </c>
@@ -27799,7 +27800,7 @@
         <v>2.6259999999999999E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:38" ht="15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:38" ht="15">
       <c r="A69" s="70">
         <v>2.7139999999999998E-3</v>
       </c>
@@ -27915,7 +27916,7 @@
         <v>2.454E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:38" ht="15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:38" ht="15">
       <c r="A70" s="70">
         <v>2.6229999999999999E-3</v>
       </c>
@@ -28031,7 +28032,7 @@
         <v>2.3349999999999998E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:38" ht="15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:38" ht="15">
       <c r="A71" s="70">
         <v>3.0539999999999999E-3</v>
       </c>
@@ -28147,7 +28148,7 @@
         <v>2.196E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:38" ht="15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:38" ht="15">
       <c r="A72" s="70">
         <v>2.604E-3</v>
       </c>
@@ -28263,7 +28264,7 @@
         <v>2.248E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:38" ht="15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:38" ht="15">
       <c r="A73" s="70">
         <v>2.6319999999999998E-3</v>
       </c>
@@ -28379,7 +28380,7 @@
         <v>2.3709999999999998E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:38" ht="15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:38" ht="15">
       <c r="A74" s="70">
         <v>2.8869999999999998E-3</v>
       </c>
@@ -28495,7 +28496,7 @@
         <v>2.4359999999999998E-3</v>
       </c>
     </row>
-    <row r="75" spans="1:38" ht="15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:38" ht="15">
       <c r="A75" s="70">
         <v>2.5990000000000002E-3</v>
       </c>
@@ -28611,7 +28612,7 @@
         <v>2.6559999999999999E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:38" ht="15" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:38" ht="15">
       <c r="A76" s="70">
         <v>2.016E-3</v>
       </c>
@@ -28727,7 +28728,7 @@
         <v>2.895E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:38" ht="15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:38" ht="15">
       <c r="A77" s="70">
         <v>1.9350000000000001E-3</v>
       </c>
